--- a/data/worldometer global/20-09-29 Global wom raw data.xlsx
+++ b/data/worldometer global/20-09-29 Global wom raw data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/71ffaa969b2b2dbb/Meridian/h Computer Science/Teacher Projects/COVID/data/worldometer global/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{A6283F1D-EDCF-4523-A0AF-1E910146D895}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{EFC43B9C-7AA0-4C5A-8C52-BED057642A2C}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{A6283F1D-EDCF-4523-A0AF-1E910146D895}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B571C506-331B-465D-B6E5-270506A25A01}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="-21240" windowWidth="25860" windowHeight="19470" activeTab="1" xr2:uid="{8E47FD39-2E4A-43A8-AC2E-E8221A8D475B}"/>
+    <workbookView xWindow="3045" yWindow="-20790" windowWidth="20520" windowHeight="19665" activeTab="1" xr2:uid="{8E47FD39-2E4A-43A8-AC2E-E8221A8D475B}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw" sheetId="1" r:id="rId1"/>
@@ -1387,7 +1387,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F18C471-AD1F-4B8D-873E-6BF836B63BEB}">
   <dimension ref="A1:O217"/>
   <sheetViews>
-    <sheetView topLeftCell="A196" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:N217"/>
     </sheetView>
   </sheetViews>
@@ -20816,428 +20816,428 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="https://www.worldometers.info/coronavirus/country/us/" xr:uid="{78AD9919-E8F0-471B-B786-12BEBCA7C6B0}"/>
-    <hyperlink ref="N3" r:id="rId2" display="https://www.worldometers.info/world-population/us-population/" xr:uid="{B011AD60-05D4-4CB7-BBBC-6A465A03246E}"/>
-    <hyperlink ref="B4" r:id="rId3" display="https://www.worldometers.info/coronavirus/country/india/" xr:uid="{DDD25092-4FFA-44B4-989E-7F2333103092}"/>
-    <hyperlink ref="N4" r:id="rId4" display="https://www.worldometers.info/world-population/india-population/" xr:uid="{F738FFA0-F6C6-4F9B-88CC-D131809D1084}"/>
-    <hyperlink ref="B5" r:id="rId5" display="https://www.worldometers.info/coronavirus/country/brazil/" xr:uid="{39E3E199-A234-4571-B3E7-B39C2CB61191}"/>
-    <hyperlink ref="N5" r:id="rId6" display="https://www.worldometers.info/world-population/brazil-population/" xr:uid="{10E81AF9-F627-415B-9CD2-2FEE20CD1950}"/>
-    <hyperlink ref="B6" r:id="rId7" display="https://www.worldometers.info/coronavirus/country/russia/" xr:uid="{9A02490B-77C7-47B2-B8A4-AD8286D8C7E9}"/>
-    <hyperlink ref="N6" r:id="rId8" display="https://www.worldometers.info/world-population/russia-population/" xr:uid="{D873E725-78D3-4B45-A934-94634274D56A}"/>
-    <hyperlink ref="B7" r:id="rId9" display="https://www.worldometers.info/coronavirus/country/colombia/" xr:uid="{1EBF3B8D-5E4C-4422-830D-B430CE685710}"/>
-    <hyperlink ref="N7" r:id="rId10" display="https://www.worldometers.info/world-population/colombia-population/" xr:uid="{BE2A4A8E-254A-42E4-99FA-532FFB0044EB}"/>
-    <hyperlink ref="B8" r:id="rId11" display="https://www.worldometers.info/coronavirus/country/peru/" xr:uid="{1D9BCAA0-566D-43AF-87B2-3D7E6B81AFFB}"/>
-    <hyperlink ref="N8" r:id="rId12" display="https://www.worldometers.info/world-population/peru-population/" xr:uid="{51B30057-E56C-4BA8-BECE-C2F2DB35501E}"/>
-    <hyperlink ref="B9" r:id="rId13" display="https://www.worldometers.info/coronavirus/country/spain/" xr:uid="{9A4339E2-088A-4E85-A90C-D1A3D821D20C}"/>
-    <hyperlink ref="N9" r:id="rId14" display="https://www.worldometers.info/world-population/spain-population/" xr:uid="{12182B6B-A10E-4F70-B38F-54A5D64F1095}"/>
-    <hyperlink ref="B10" r:id="rId15" display="https://www.worldometers.info/coronavirus/country/mexico/" xr:uid="{B2BB523E-DBB7-4CE6-84D1-AB02A07199FE}"/>
-    <hyperlink ref="N10" r:id="rId16" display="https://www.worldometers.info/world-population/mexico-population/" xr:uid="{8F20E11C-6513-4C35-8723-25081977D425}"/>
-    <hyperlink ref="B11" r:id="rId17" display="https://www.worldometers.info/coronavirus/country/argentina/" xr:uid="{6DED0653-F2B5-4785-AE50-300F737B3CDE}"/>
-    <hyperlink ref="N11" r:id="rId18" display="https://www.worldometers.info/world-population/argentina-population/" xr:uid="{535BDE81-F054-4DD1-9595-F80413551A77}"/>
-    <hyperlink ref="B12" r:id="rId19" display="https://www.worldometers.info/coronavirus/country/south-africa/" xr:uid="{0729F700-365B-4589-A355-5C585469BCA2}"/>
-    <hyperlink ref="N12" r:id="rId20" display="https://www.worldometers.info/world-population/south-africa-population/" xr:uid="{96AA1C5D-2A74-47AF-9570-706A128B5041}"/>
-    <hyperlink ref="B13" r:id="rId21" display="https://www.worldometers.info/coronavirus/country/france/" xr:uid="{2CED9619-4313-4A2B-B4FB-FB7C93C8DE85}"/>
-    <hyperlink ref="N13" r:id="rId22" display="https://www.worldometers.info/world-population/france-population/" xr:uid="{C5401BDB-4CAF-4B48-9E56-CBD0C851A8E9}"/>
-    <hyperlink ref="B14" r:id="rId23" display="https://www.worldometers.info/coronavirus/country/chile/" xr:uid="{BAEBE59E-BB21-4FD5-8A04-5AA412CF71A9}"/>
-    <hyperlink ref="N14" r:id="rId24" display="https://www.worldometers.info/world-population/chile-population/" xr:uid="{1700AC88-813A-47F6-8E78-61EBD00AA1C9}"/>
-    <hyperlink ref="B15" r:id="rId25" display="https://www.worldometers.info/coronavirus/country/iran/" xr:uid="{570E4D82-7C1A-4D35-B337-2A44C90A936B}"/>
-    <hyperlink ref="N15" r:id="rId26" display="https://www.worldometers.info/world-population/iran-population/" xr:uid="{E16EF6C5-48E5-4F98-8766-976BC70ED974}"/>
-    <hyperlink ref="B16" r:id="rId27" display="https://www.worldometers.info/coronavirus/country/uk/" xr:uid="{1F68D32C-B742-42D3-BFA7-9C34BB128EEB}"/>
-    <hyperlink ref="N16" r:id="rId28" display="https://www.worldometers.info/world-population/uk-population/" xr:uid="{068FE8B6-3E1F-4550-9452-2DE23FDC0E64}"/>
-    <hyperlink ref="B17" r:id="rId29" display="https://www.worldometers.info/coronavirus/country/bangladesh/" xr:uid="{D283C4DC-FC87-432E-9AD4-4B8AF70BBA6A}"/>
-    <hyperlink ref="N17" r:id="rId30" display="https://www.worldometers.info/world-population/bangladesh-population/" xr:uid="{2463F3A0-5510-4036-89ED-0F32AF5D70D6}"/>
-    <hyperlink ref="B18" r:id="rId31" display="https://www.worldometers.info/coronavirus/country/iraq/" xr:uid="{C04AD769-8548-4945-879A-3D60D89FE005}"/>
-    <hyperlink ref="N18" r:id="rId32" display="https://www.worldometers.info/world-population/iraq-population/" xr:uid="{0FAC6815-9DFF-4E25-94C9-7D64F6F8DFF6}"/>
-    <hyperlink ref="B19" r:id="rId33" display="https://www.worldometers.info/coronavirus/country/saudi-arabia/" xr:uid="{DAF7509C-BEFC-411E-A6C5-D03F898D3180}"/>
-    <hyperlink ref="N19" r:id="rId34" display="https://www.worldometers.info/world-population/saudi-arabia-population/" xr:uid="{13937FF5-A778-4ED3-8134-01941818156A}"/>
-    <hyperlink ref="B20" r:id="rId35" display="https://www.worldometers.info/coronavirus/country/turkey/" xr:uid="{D12025AE-5735-46B6-924C-3FE8D052F1CC}"/>
-    <hyperlink ref="N20" r:id="rId36" display="https://www.worldometers.info/world-population/turkey-population/" xr:uid="{6CBE04C0-4B8A-4471-BC99-AC46B1400062}"/>
-    <hyperlink ref="B21" r:id="rId37" display="https://www.worldometers.info/coronavirus/country/pakistan/" xr:uid="{4516BAA4-DE7E-4D88-B534-1606A4D63B89}"/>
-    <hyperlink ref="N21" r:id="rId38" display="https://www.worldometers.info/world-population/pakistan-population/" xr:uid="{36ECAED5-0249-4331-9104-95DF43526C99}"/>
-    <hyperlink ref="B22" r:id="rId39" display="https://www.worldometers.info/coronavirus/country/italy/" xr:uid="{DCB88EC7-5DF1-4939-BFA7-19BC975F6066}"/>
-    <hyperlink ref="N22" r:id="rId40" display="https://www.worldometers.info/world-population/italy-population/" xr:uid="{8B8EB267-E4AD-453C-BD79-A973A3E0E270}"/>
-    <hyperlink ref="B23" r:id="rId41" display="https://www.worldometers.info/coronavirus/country/philippines/" xr:uid="{A344F5B9-08C3-40D9-A18B-0E040510728F}"/>
-    <hyperlink ref="N23" r:id="rId42" display="https://www.worldometers.info/world-population/philippines-population/" xr:uid="{FCF072A4-0778-459C-9747-7BC64AF85488}"/>
-    <hyperlink ref="B24" r:id="rId43" display="https://www.worldometers.info/coronavirus/country/germany/" xr:uid="{C825C2E9-FD83-4019-9AF7-FC3F7D87F3FE}"/>
-    <hyperlink ref="N24" r:id="rId44" display="https://www.worldometers.info/world-population/germany-population/" xr:uid="{88FB6198-B65E-4521-93B3-0180C900EF17}"/>
-    <hyperlink ref="B25" r:id="rId45" display="https://www.worldometers.info/coronavirus/country/indonesia/" xr:uid="{6C15DFCC-846A-4139-89E6-934F9C8A250A}"/>
-    <hyperlink ref="N25" r:id="rId46" display="https://www.worldometers.info/world-population/indonesia-population/" xr:uid="{17BB1BB8-658E-4453-B6BC-92AD718E74AE}"/>
-    <hyperlink ref="B26" r:id="rId47" display="https://www.worldometers.info/coronavirus/country/israel/" xr:uid="{31CF1B29-4C5D-40C2-B7D2-CD4F9A75FA65}"/>
-    <hyperlink ref="B27" r:id="rId48" display="https://www.worldometers.info/coronavirus/country/ukraine/" xr:uid="{4382746B-F2F2-4E5A-B209-A089F172D8F0}"/>
-    <hyperlink ref="N27" r:id="rId49" display="https://www.worldometers.info/world-population/ukraine-population/" xr:uid="{224E2CCE-2FEA-4944-B665-FFD63E987599}"/>
-    <hyperlink ref="B28" r:id="rId50" display="https://www.worldometers.info/coronavirus/country/canada/" xr:uid="{DF6545EF-ABEE-4E6E-B2EA-C4FEF6471F3A}"/>
-    <hyperlink ref="N28" r:id="rId51" display="https://www.worldometers.info/world-population/canada-population/" xr:uid="{F8894314-05AB-4300-98F1-8F5C91FC491F}"/>
-    <hyperlink ref="B29" r:id="rId52" display="https://www.worldometers.info/coronavirus/country/ecuador/" xr:uid="{89FB04D2-76A5-46BE-AC9A-6427E1AF0F7F}"/>
-    <hyperlink ref="N29" r:id="rId53" display="https://www.worldometers.info/world-population/ecuador-population/" xr:uid="{E5F5BD53-A739-4B1A-BED2-139E2384A056}"/>
-    <hyperlink ref="B30" r:id="rId54" display="https://www.worldometers.info/coronavirus/country/bolivia/" xr:uid="{69152AFA-B8D7-4BDE-8A43-D8ED5D1C779B}"/>
-    <hyperlink ref="N30" r:id="rId55" display="https://www.worldometers.info/world-population/bolivia-population/" xr:uid="{1157B830-EF59-4104-9D41-BB2E71A2AECC}"/>
-    <hyperlink ref="B31" r:id="rId56" display="https://www.worldometers.info/coronavirus/country/romania/" xr:uid="{A3802937-917F-4E47-8854-18F85743995D}"/>
-    <hyperlink ref="N31" r:id="rId57" display="https://www.worldometers.info/world-population/romania-population/" xr:uid="{99CFE915-4FB6-4F4E-9C15-46A7EA5DFFA4}"/>
-    <hyperlink ref="B32" r:id="rId58" display="https://www.worldometers.info/coronavirus/country/qatar/" xr:uid="{6CE9A9C8-B629-4BF2-9FBA-38D30F45E280}"/>
-    <hyperlink ref="B33" r:id="rId59" display="https://www.worldometers.info/coronavirus/country/morocco/" xr:uid="{0525D906-3400-4F86-BC19-743B6168B33D}"/>
-    <hyperlink ref="N33" r:id="rId60" display="https://www.worldometers.info/world-population/morocco-population/" xr:uid="{063CAFD4-1E3A-44BC-9BE0-C67298162614}"/>
-    <hyperlink ref="B34" r:id="rId61" display="https://www.worldometers.info/coronavirus/country/belgium/" xr:uid="{AB6EB3BE-1432-4EE1-B416-C2AF096629AE}"/>
-    <hyperlink ref="N34" r:id="rId62" display="https://www.worldometers.info/world-population/belgium-population/" xr:uid="{BA4EEC85-0863-4C54-BC22-66927B879201}"/>
-    <hyperlink ref="B35" r:id="rId63" display="https://www.worldometers.info/coronavirus/country/netherlands/" xr:uid="{F0CE7964-33D9-4B8E-9143-90C893276221}"/>
-    <hyperlink ref="N35" r:id="rId64" display="https://www.worldometers.info/world-population/netherlands-population/" xr:uid="{8AF53076-EDE4-4817-AEE6-E8C07C6F363C}"/>
-    <hyperlink ref="B36" r:id="rId65" display="https://www.worldometers.info/coronavirus/country/dominican-republic/" xr:uid="{43B37B7E-B95E-4225-A3F1-815C3FDCC750}"/>
-    <hyperlink ref="N36" r:id="rId66" display="https://www.worldometers.info/world-population/dominican-republic-population/" xr:uid="{5CD6429E-BEAD-43BA-80F8-359799000BF7}"/>
-    <hyperlink ref="B37" r:id="rId67" display="https://www.worldometers.info/coronavirus/country/panama/" xr:uid="{D5C851C8-2227-488A-A6E3-D4688E9D0890}"/>
-    <hyperlink ref="N37" r:id="rId68" display="https://www.worldometers.info/world-population/panama-population/" xr:uid="{41B96002-7D9D-44B4-B016-3CE258065282}"/>
-    <hyperlink ref="B38" r:id="rId69" display="https://www.worldometers.info/coronavirus/country/kazakhstan/" xr:uid="{23CC3A4D-1657-48FD-AE9E-7EE2DEA783C4}"/>
-    <hyperlink ref="N38" r:id="rId70" display="https://www.worldometers.info/world-population/kazakhstan-population/" xr:uid="{BF9D36F4-0CB6-427E-BD14-F87E9F3BF09C}"/>
-    <hyperlink ref="B39" r:id="rId71" display="https://www.worldometers.info/coronavirus/country/kuwait/" xr:uid="{E7B16631-9D16-4794-8116-A3117939F486}"/>
-    <hyperlink ref="N39" r:id="rId72" display="https://www.worldometers.info/world-population/kuwait-population/" xr:uid="{4C74F8A3-7DC2-4EE8-8723-7542BB6B02DA}"/>
-    <hyperlink ref="B40" r:id="rId73" display="https://www.worldometers.info/coronavirus/country/egypt/" xr:uid="{2137C54E-253B-45F2-8A49-092212CC3FDD}"/>
-    <hyperlink ref="N40" r:id="rId74" display="https://www.worldometers.info/world-population/egypt-population/" xr:uid="{C566ED05-C4EE-4F47-A5F6-07DAFFEE5B06}"/>
-    <hyperlink ref="B41" r:id="rId75" display="https://www.worldometers.info/coronavirus/country/oman/" xr:uid="{E4AAC224-335E-40C7-883D-00CBB1ECB29D}"/>
-    <hyperlink ref="N41" r:id="rId76" display="https://www.worldometers.info/world-population/oman-population/" xr:uid="{E82CB340-41AA-4E9D-B963-D678D7479E86}"/>
-    <hyperlink ref="B42" r:id="rId77" display="https://www.worldometers.info/coronavirus/country/united-arab-emirates/" xr:uid="{9ADA3C81-4EE1-41CB-BC80-F26A7AF595BD}"/>
-    <hyperlink ref="N42" r:id="rId78" display="https://www.worldometers.info/world-population/united-arab-emirates-population/" xr:uid="{1C00B759-609C-4C28-91AE-968F3C9969BD}"/>
-    <hyperlink ref="B43" r:id="rId79" display="https://www.worldometers.info/coronavirus/country/sweden/" xr:uid="{59389F80-8CB5-409F-9BB7-246E80879B7D}"/>
-    <hyperlink ref="N43" r:id="rId80" display="https://www.worldometers.info/world-population/sweden-population/" xr:uid="{47E16F6A-1125-45C9-80D4-1311CF815696}"/>
-    <hyperlink ref="B44" r:id="rId81" display="https://www.worldometers.info/coronavirus/country/guatemala/" xr:uid="{43771077-3C23-4AD5-BA1E-2BF93D0E4801}"/>
-    <hyperlink ref="N44" r:id="rId82" display="https://www.worldometers.info/world-population/guatemala-population/" xr:uid="{051BEA68-BAF5-4EBF-BE7C-999AB3072833}"/>
-    <hyperlink ref="B45" r:id="rId83" display="https://www.worldometers.info/coronavirus/country/poland/" xr:uid="{1D92D7C5-8553-40A5-8769-17F4B1A8FEB7}"/>
-    <hyperlink ref="N45" r:id="rId84" display="https://www.worldometers.info/world-population/poland-population/" xr:uid="{99BE2148-BC8B-451A-98B6-5FB5DD1A4C49}"/>
-    <hyperlink ref="B46" r:id="rId85" display="https://www.worldometers.info/coronavirus/country/china/" xr:uid="{36267394-5F7D-4545-8F6E-A22BC720B20E}"/>
-    <hyperlink ref="B47" r:id="rId86" display="https://www.worldometers.info/coronavirus/country/japan/" xr:uid="{DAB0EE69-1DEE-49B4-A573-5C1C2CAB3A6F}"/>
-    <hyperlink ref="N47" r:id="rId87" display="https://www.worldometers.info/world-population/japan-population/" xr:uid="{8F54A79F-8B25-47C8-ACEB-B60C76C6C246}"/>
-    <hyperlink ref="B48" r:id="rId88" display="https://www.worldometers.info/coronavirus/country/belarus/" xr:uid="{85542A7B-9983-40C6-9D38-0DA0E55B9C13}"/>
-    <hyperlink ref="N48" r:id="rId89" display="https://www.worldometers.info/world-population/belarus-population/" xr:uid="{B5E1049D-4C51-4DB6-A52A-1451E0F29FD0}"/>
-    <hyperlink ref="B49" r:id="rId90" display="https://www.worldometers.info/coronavirus/country/nepal/" xr:uid="{EE88D83C-FD3F-45C7-BB0A-EA80ACA94B2A}"/>
-    <hyperlink ref="N49" r:id="rId91" display="https://www.worldometers.info/world-population/nepal-population/" xr:uid="{70CE86BD-AA87-4FC7-8494-8265F3C5C1E6}"/>
-    <hyperlink ref="B50" r:id="rId92" display="https://www.worldometers.info/coronavirus/country/honduras/" xr:uid="{EDAD9246-9180-4F56-84BD-4E02E5B79328}"/>
-    <hyperlink ref="N50" r:id="rId93" display="https://www.worldometers.info/world-population/honduras-population/" xr:uid="{0E51F00E-BE58-4F61-A9B2-00B1E60A292E}"/>
-    <hyperlink ref="B51" r:id="rId94" display="https://www.worldometers.info/coronavirus/country/portugal/" xr:uid="{E9FAB5D6-94D6-4138-9525-0331C660BB1A}"/>
-    <hyperlink ref="N51" r:id="rId95" display="https://www.worldometers.info/world-population/portugal-population/" xr:uid="{DCC534A5-533F-44E3-BA27-F5BC928A09E5}"/>
-    <hyperlink ref="B52" r:id="rId96" display="https://www.worldometers.info/coronavirus/country/ethiopia/" xr:uid="{E3C6A9B8-4533-4907-BF61-3F5624FE0F57}"/>
-    <hyperlink ref="N52" r:id="rId97" display="https://www.worldometers.info/world-population/ethiopia-population/" xr:uid="{201E5B01-921E-4A1B-A4B5-6720DC5AD739}"/>
-    <hyperlink ref="B53" r:id="rId98" display="https://www.worldometers.info/coronavirus/country/costa-rica/" xr:uid="{2C1B50E3-423D-4E59-A4CC-CCC6E46839DD}"/>
-    <hyperlink ref="N53" r:id="rId99" display="https://www.worldometers.info/world-population/costa-rica-population/" xr:uid="{CF3E29AA-B83B-4306-979D-55EED2875E78}"/>
-    <hyperlink ref="B54" r:id="rId100" display="https://www.worldometers.info/coronavirus/country/venezuela/" xr:uid="{3CDB72D7-23E0-46B9-A109-05E42425ED21}"/>
-    <hyperlink ref="N54" r:id="rId101" display="https://www.worldometers.info/world-population/venezuela-population/" xr:uid="{32F7BD83-066F-4CA5-B27A-6AAEC282E5C1}"/>
-    <hyperlink ref="B55" r:id="rId102" display="https://www.worldometers.info/coronavirus/country/bahrain/" xr:uid="{726079E0-2749-4ABA-9090-14B5384D01BC}"/>
-    <hyperlink ref="N55" r:id="rId103" display="https://www.worldometers.info/world-population/bahrain-population/" xr:uid="{A1FB5304-EFA0-4E1E-850A-0035060F0E00}"/>
-    <hyperlink ref="B56" r:id="rId104" display="https://www.worldometers.info/coronavirus/country/czech-republic/" xr:uid="{AE3EBF59-D55F-4640-84FD-7E21C9ED6E17}"/>
-    <hyperlink ref="N56" r:id="rId105" display="https://www.worldometers.info/world-population/czech-republic-population/" xr:uid="{655B771F-6756-4473-9071-857B9E95CEC1}"/>
-    <hyperlink ref="B57" r:id="rId106" display="https://www.worldometers.info/coronavirus/country/nigeria/" xr:uid="{9D539547-B6DC-4436-8A57-D0311162EF61}"/>
-    <hyperlink ref="N57" r:id="rId107" display="https://www.worldometers.info/world-population/nigeria-population/" xr:uid="{5A789ED0-17FE-4CE1-907B-969D47499EA2}"/>
-    <hyperlink ref="B58" r:id="rId108" display="https://www.worldometers.info/coronavirus/country/singapore/" xr:uid="{DD064506-75F9-49D0-95DE-75867AE2625B}"/>
-    <hyperlink ref="N58" r:id="rId109" display="https://www.worldometers.info/world-population/singapore-population/" xr:uid="{CC7922DF-346B-454F-ADE9-BDE814EC98B0}"/>
-    <hyperlink ref="B59" r:id="rId110" display="https://www.worldometers.info/coronavirus/country/uzbekistan/" xr:uid="{BBB4997A-A271-4ABA-8B29-CBB20B29BF7E}"/>
-    <hyperlink ref="N59" r:id="rId111" display="https://www.worldometers.info/world-population/uzbekistan-population/" xr:uid="{6107F72F-607F-499B-8F60-7C6664D75534}"/>
-    <hyperlink ref="B60" r:id="rId112" display="https://www.worldometers.info/coronavirus/country/switzerland/" xr:uid="{663F7643-E9C9-4874-9272-DA982D97A004}"/>
-    <hyperlink ref="N60" r:id="rId113" display="https://www.worldometers.info/world-population/switzerland-population/" xr:uid="{3B20B800-824A-4E77-9383-0C93273175FE}"/>
-    <hyperlink ref="B61" r:id="rId114" display="https://www.worldometers.info/coronavirus/country/algeria/" xr:uid="{5C2A7E36-BAEE-4937-A2D6-454AE26F20B7}"/>
-    <hyperlink ref="N61" r:id="rId115" display="https://www.worldometers.info/world-population/algeria-population/" xr:uid="{14891B26-02E2-4E7A-B711-2E3BFE41B567}"/>
-    <hyperlink ref="B62" r:id="rId116" display="https://www.worldometers.info/coronavirus/country/moldova/" xr:uid="{84BF16F8-9190-46C1-A0EA-8DF3A39F7C12}"/>
-    <hyperlink ref="N62" r:id="rId117" display="https://www.worldometers.info/world-population/moldova-population/" xr:uid="{40EF4CEE-4180-4FEB-AEC6-6775C6A1CB02}"/>
-    <hyperlink ref="B63" r:id="rId118" display="https://www.worldometers.info/coronavirus/country/armenia/" xr:uid="{7E40728E-2B11-4CF6-867F-27CA71E6CB71}"/>
-    <hyperlink ref="N63" r:id="rId119" display="https://www.worldometers.info/world-population/armenia-population/" xr:uid="{4FA7481C-B1D9-4DBF-9DA1-F878E05C81C7}"/>
-    <hyperlink ref="B64" r:id="rId120" display="https://www.worldometers.info/coronavirus/country/kyrgyzstan/" xr:uid="{E0E71193-F84F-40E2-B771-AFF3554FB5CB}"/>
-    <hyperlink ref="N64" r:id="rId121" display="https://www.worldometers.info/world-population/kyrgyzstan-population/" xr:uid="{72844843-48C6-46CD-8672-0F9ED67AFCB2}"/>
-    <hyperlink ref="B65" r:id="rId122" display="https://www.worldometers.info/coronavirus/country/ghana/" xr:uid="{6A10C3BD-22DD-4BF8-B118-3EC5FB819508}"/>
-    <hyperlink ref="N65" r:id="rId123" display="https://www.worldometers.info/world-population/ghana-population/" xr:uid="{1D97BF18-BBAC-4EBC-A65B-9E0BF54F184E}"/>
-    <hyperlink ref="B66" r:id="rId124" display="https://www.worldometers.info/coronavirus/country/austria/" xr:uid="{BC93BAC9-032A-4A16-9FFD-C8480A3D75D7}"/>
-    <hyperlink ref="N66" r:id="rId125" display="https://www.worldometers.info/world-population/austria-population/" xr:uid="{080D88E5-C510-42FF-B00F-C0362ABEECC0}"/>
-    <hyperlink ref="B67" r:id="rId126" display="https://www.worldometers.info/coronavirus/country/azerbaijan/" xr:uid="{475888EB-530A-4B1A-9DED-81DB345DF645}"/>
-    <hyperlink ref="N67" r:id="rId127" display="https://www.worldometers.info/world-population/azerbaijan-population/" xr:uid="{73493FC8-701E-4D72-B773-EAAE7448EEDF}"/>
-    <hyperlink ref="B68" r:id="rId128" display="https://www.worldometers.info/coronavirus/country/paraguay/" xr:uid="{5CA36ED6-EAE5-410B-BFC7-E6FE1965BED6}"/>
-    <hyperlink ref="N68" r:id="rId129" display="https://www.worldometers.info/world-population/paraguay-population/" xr:uid="{0A3936E9-254B-4406-BD46-41E5C083C866}"/>
-    <hyperlink ref="B69" r:id="rId130" display="https://www.worldometers.info/coronavirus/country/afghanistan/" xr:uid="{BCADE7BB-F3B8-421F-87FE-202D2A17F53A}"/>
-    <hyperlink ref="N69" r:id="rId131" display="https://www.worldometers.info/world-population/afghanistan-population/" xr:uid="{28F1052D-01C6-443D-95F7-847B1B748015}"/>
-    <hyperlink ref="B70" r:id="rId132" display="https://www.worldometers.info/coronavirus/country/state-of-palestine/" xr:uid="{AB0134FC-C0B9-48B4-8287-3DFA0EE7FA0C}"/>
-    <hyperlink ref="N70" r:id="rId133" display="https://www.worldometers.info/world-population/state-of-palestine-population/" xr:uid="{FA57FB3F-CEEB-4067-997A-4A5E420F3C9A}"/>
-    <hyperlink ref="B71" r:id="rId134" display="https://www.worldometers.info/coronavirus/country/kenya/" xr:uid="{D9DA4C87-1F60-43FF-B376-57973E77D068}"/>
-    <hyperlink ref="N71" r:id="rId135" display="https://www.worldometers.info/world-population/kenya-population/" xr:uid="{14B23073-E32E-43C7-91C2-B78C88B846D8}"/>
-    <hyperlink ref="B72" r:id="rId136" display="https://www.worldometers.info/coronavirus/country/lebanon/" xr:uid="{BB1CEEF7-18C2-43B0-95D0-DA8191CCBE44}"/>
-    <hyperlink ref="N72" r:id="rId137" display="https://www.worldometers.info/world-population/lebanon-population/" xr:uid="{1D9591AD-ED26-4FCA-B679-D1CB16F3CF64}"/>
-    <hyperlink ref="B73" r:id="rId138" display="https://www.worldometers.info/coronavirus/country/ireland/" xr:uid="{B1E68572-A2D3-4B6F-9648-CFC2964ADA28}"/>
-    <hyperlink ref="N73" r:id="rId139" display="https://www.worldometers.info/world-population/ireland-population/" xr:uid="{8805D4A8-7FE6-473E-A74C-714CB3E1B0BB}"/>
-    <hyperlink ref="B74" r:id="rId140" display="https://www.worldometers.info/coronavirus/country/serbia/" xr:uid="{FDC8E586-B89D-4FA3-AC0B-EE17DBA94AB8}"/>
-    <hyperlink ref="N74" r:id="rId141" display="https://www.worldometers.info/world-population/serbia-population/" xr:uid="{7B5CEAB8-68C8-4090-9756-6C9F4D90A6D6}"/>
-    <hyperlink ref="B75" r:id="rId142" display="https://www.worldometers.info/coronavirus/country/libya/" xr:uid="{58A0C7E2-7A50-40F9-BC1C-60C719E55547}"/>
-    <hyperlink ref="N75" r:id="rId143" display="https://www.worldometers.info/world-population/libya-population/" xr:uid="{406CD976-5B39-4761-AD87-267BBA36F8A6}"/>
-    <hyperlink ref="B76" r:id="rId144" display="https://www.worldometers.info/coronavirus/country/el-salvador/" xr:uid="{666A5B1A-26ED-405D-A4D0-3386E3E7C34C}"/>
-    <hyperlink ref="N76" r:id="rId145" display="https://www.worldometers.info/world-population/el-salvador-population/" xr:uid="{4588B85F-D5D7-4DF9-9DAC-746E8C0A1890}"/>
-    <hyperlink ref="B77" r:id="rId146" display="https://www.worldometers.info/coronavirus/country/denmark/" xr:uid="{AFE6DBDC-C7B1-42E1-8638-BAA03E49DA62}"/>
-    <hyperlink ref="N77" r:id="rId147" display="https://www.worldometers.info/world-population/denmark-population/" xr:uid="{0A05C1E6-CAFD-43C6-8C09-1A72469087ED}"/>
-    <hyperlink ref="B78" r:id="rId148" display="https://www.worldometers.info/coronavirus/country/australia/" xr:uid="{1EA7FDF2-20C8-4F10-A31E-6C0AD30CA78C}"/>
-    <hyperlink ref="N78" r:id="rId149" display="https://www.worldometers.info/world-population/australia-population/" xr:uid="{7F3C5FE9-5EFF-4308-8420-6C4C2DBC2C38}"/>
-    <hyperlink ref="B79" r:id="rId150" display="https://www.worldometers.info/coronavirus/country/bosnia-and-herzegovina/" xr:uid="{490D6878-C866-4976-A745-2EF2ADF6D4CF}"/>
-    <hyperlink ref="N79" r:id="rId151" display="https://www.worldometers.info/world-population/bosnia-and-herzegovina-population/" xr:uid="{BF99E824-577F-4260-8F94-B5144961785B}"/>
-    <hyperlink ref="B80" r:id="rId152" display="https://www.worldometers.info/coronavirus/country/hungary/" xr:uid="{F1C30333-B606-4024-9E82-7DCDBE9C9BEF}"/>
-    <hyperlink ref="N80" r:id="rId153" display="https://www.worldometers.info/world-population/hungary-population/" xr:uid="{171501BC-031F-40E9-80F7-D3272763E60C}"/>
-    <hyperlink ref="B81" r:id="rId154" display="https://www.worldometers.info/coronavirus/country/south-korea/" xr:uid="{186D7FC0-0706-475C-A8C4-7E753F54C6E0}"/>
-    <hyperlink ref="N81" r:id="rId155" display="https://www.worldometers.info/world-population/south-korea-population/" xr:uid="{DC2113FE-0B4C-4948-96BC-FD342B2C2FCF}"/>
-    <hyperlink ref="B82" r:id="rId156" display="https://www.worldometers.info/coronavirus/country/cameroon/" xr:uid="{253A8354-F1A2-4672-8155-A65447C4CF42}"/>
-    <hyperlink ref="N82" r:id="rId157" display="https://www.worldometers.info/world-population/cameroon-population/" xr:uid="{EA5FE6A7-669F-4A49-A651-DFE7FB7E5780}"/>
-    <hyperlink ref="B83" r:id="rId158" display="https://www.worldometers.info/coronavirus/country/bulgaria/" xr:uid="{1437491F-6C2B-4CA1-9AEC-7E7C3E23135F}"/>
-    <hyperlink ref="N83" r:id="rId159" display="https://www.worldometers.info/world-population/bulgaria-population/" xr:uid="{53004FA0-F4DA-4A26-B3CF-69F2811267EA}"/>
-    <hyperlink ref="B84" r:id="rId160" display="https://www.worldometers.info/coronavirus/country/cote-d-ivoire/" xr:uid="{0F4B804D-B497-45FB-8CAD-CF529DFC3495}"/>
-    <hyperlink ref="N84" r:id="rId161" display="https://www.worldometers.info/world-population/cote-d-ivoire-population/" xr:uid="{6190261B-B30F-4168-87A3-5BA3ED8C4357}"/>
-    <hyperlink ref="B85" r:id="rId162" display="https://www.worldometers.info/coronavirus/country/greece/" xr:uid="{20306628-DC24-4132-8899-C10EA4178AED}"/>
-    <hyperlink ref="N85" r:id="rId163" display="https://www.worldometers.info/world-population/greece-population/" xr:uid="{8F1FC8D6-F320-4AB5-A1BF-A90F92184787}"/>
-    <hyperlink ref="B86" r:id="rId164" display="https://www.worldometers.info/coronavirus/country/macedonia/" xr:uid="{6C3A64DE-7664-488E-9E3C-99E9466B3090}"/>
-    <hyperlink ref="N86" r:id="rId165" display="https://www.worldometers.info/world-population/macedonia-population/" xr:uid="{8175E930-41E2-4DFC-AEE6-E948CEA6B278}"/>
-    <hyperlink ref="B87" r:id="rId166" display="https://www.worldometers.info/coronavirus/country/croatia/" xr:uid="{DBAEDB1C-568A-4F48-8C40-FB78290C46F5}"/>
-    <hyperlink ref="N87" r:id="rId167" display="https://www.worldometers.info/world-population/croatia-population/" xr:uid="{4A4D7342-AD64-4216-8290-C154FD5E3BCF}"/>
-    <hyperlink ref="B88" r:id="rId168" display="https://www.worldometers.info/coronavirus/country/madagascar/" xr:uid="{2CBEE24B-8281-421D-80D7-A6BF13F3BE1F}"/>
-    <hyperlink ref="N88" r:id="rId169" display="https://www.worldometers.info/world-population/madagascar-population/" xr:uid="{DACB890A-923D-4CCC-924F-A1964727813D}"/>
-    <hyperlink ref="B89" r:id="rId170" display="https://www.worldometers.info/coronavirus/country/tunisia/" xr:uid="{C22A4ABC-D501-4F0C-8076-636DDD08287F}"/>
-    <hyperlink ref="N89" r:id="rId171" display="https://www.worldometers.info/world-population/tunisia-population/" xr:uid="{D6E86435-AAE4-44CD-B2A7-01A7FD817FC6}"/>
-    <hyperlink ref="B90" r:id="rId172" display="https://www.worldometers.info/coronavirus/country/senegal/" xr:uid="{60B65E3C-2195-456E-AB27-DD5FA8B1CFC0}"/>
-    <hyperlink ref="N90" r:id="rId173" display="https://www.worldometers.info/world-population/senegal-population/" xr:uid="{AA5D9EE5-1F7E-4E70-87E2-EBC3AF09F7C2}"/>
-    <hyperlink ref="B91" r:id="rId174" display="https://www.worldometers.info/coronavirus/country/zambia/" xr:uid="{5F1AB950-5499-42D5-B0A8-54E84D2F5279}"/>
-    <hyperlink ref="N91" r:id="rId175" display="https://www.worldometers.info/world-population/zambia-population/" xr:uid="{B22C1FB7-27D0-47CF-BF4C-E75B9EB2D6D2}"/>
-    <hyperlink ref="B92" r:id="rId176" display="https://www.worldometers.info/coronavirus/country/norway/" xr:uid="{452F4E3D-638E-41DB-8EFF-2944BEB2A399}"/>
-    <hyperlink ref="N92" r:id="rId177" display="https://www.worldometers.info/world-population/norway-population/" xr:uid="{1C30F2EE-04B7-4E61-904F-B9E1D161A313}"/>
-    <hyperlink ref="B93" r:id="rId178" display="https://www.worldometers.info/coronavirus/country/sudan/" xr:uid="{CE84E826-0C8B-497C-B55B-71F0F465D42B}"/>
-    <hyperlink ref="N93" r:id="rId179" display="https://www.worldometers.info/world-population/sudan-population/" xr:uid="{5DDCAE26-5112-4EBB-9528-7CDDD80A8476}"/>
-    <hyperlink ref="B94" r:id="rId180" display="https://www.worldometers.info/coronavirus/country/albania/" xr:uid="{B8D8B3D7-4B95-40CE-B79B-A4DD12FE0176}"/>
-    <hyperlink ref="N94" r:id="rId181" display="https://www.worldometers.info/world-population/albania-population/" xr:uid="{14B50D26-0EAB-4F13-BF2F-0F484952338E}"/>
-    <hyperlink ref="B95" r:id="rId182" display="https://www.worldometers.info/coronavirus/country/myanmar/" xr:uid="{620E141F-A813-4B1E-8849-2E24E1E3DF26}"/>
-    <hyperlink ref="N95" r:id="rId183" display="https://www.worldometers.info/world-population/myanmar-population/" xr:uid="{C633F827-F053-4C31-93E3-6602F24C6785}"/>
-    <hyperlink ref="B96" r:id="rId184" display="https://www.worldometers.info/coronavirus/country/malaysia/" xr:uid="{95A468B0-23FD-4B78-B7B1-C32642D6834A}"/>
-    <hyperlink ref="N96" r:id="rId185" display="https://www.worldometers.info/world-population/malaysia-population/" xr:uid="{8BBB137F-3245-4BF6-8985-8240FC652BDF}"/>
-    <hyperlink ref="B97" r:id="rId186" display="https://www.worldometers.info/coronavirus/country/namibia/" xr:uid="{36810CAA-ECB4-49D0-956A-7B8B13295890}"/>
-    <hyperlink ref="N97" r:id="rId187" display="https://www.worldometers.info/world-population/namibia-population/" xr:uid="{4A46D33D-D6C2-4499-B232-31CD82CD79EA}"/>
-    <hyperlink ref="B98" r:id="rId188" display="https://www.worldometers.info/coronavirus/country/democratic-republic-of-the-congo/" xr:uid="{B57BA8DE-A579-48AC-BEF6-D082AA461799}"/>
-    <hyperlink ref="N98" r:id="rId189" display="https://www.worldometers.info/world-population/democratic-republic-of-the-congo-population/" xr:uid="{9EBD79A3-11FA-47C8-A31F-EA704E3183DB}"/>
-    <hyperlink ref="B99" r:id="rId190" display="https://www.worldometers.info/coronavirus/country/guinea/" xr:uid="{121EA13D-D43D-4EC5-9C2A-838266067511}"/>
-    <hyperlink ref="N99" r:id="rId191" display="https://www.worldometers.info/world-population/guinea-population/" xr:uid="{A3CE7543-FD4C-4BFF-BACD-405B908CA5E4}"/>
-    <hyperlink ref="B100" r:id="rId192" display="https://www.worldometers.info/coronavirus/country/montenegro/" xr:uid="{5E612D42-D69A-45AD-BE3C-7676E8A9F8B2}"/>
-    <hyperlink ref="N100" r:id="rId193" display="https://www.worldometers.info/world-population/montenegro-population/" xr:uid="{22E89C54-E798-48C1-B6EA-72BF94C06250}"/>
-    <hyperlink ref="B101" r:id="rId194" display="https://www.worldometers.info/coronavirus/country/maldives/" xr:uid="{6E032523-AF9A-45B9-9459-BB00DBDEBE85}"/>
-    <hyperlink ref="N101" r:id="rId195" display="https://www.worldometers.info/world-population/maldives-population/" xr:uid="{B0C3C7B2-A2A5-4A9A-9568-981DA4B59A74}"/>
-    <hyperlink ref="B102" r:id="rId196" display="https://www.worldometers.info/coronavirus/country/french-guiana/" xr:uid="{D3A62CE8-7F79-441E-90F3-251BA03A17C3}"/>
-    <hyperlink ref="N102" r:id="rId197" display="https://www.worldometers.info/world-population/french-guiana-population/" xr:uid="{E289DF90-D63C-4955-AF68-54F4C0284C8E}"/>
-    <hyperlink ref="B103" r:id="rId198" display="https://www.worldometers.info/coronavirus/country/finland/" xr:uid="{A8991E6D-8700-44F2-A548-5B91532066C5}"/>
-    <hyperlink ref="N103" r:id="rId199" display="https://www.worldometers.info/world-population/finland-population/" xr:uid="{51FB8CAC-04AA-4972-8F74-22333C59894E}"/>
-    <hyperlink ref="B104" r:id="rId200" display="https://www.worldometers.info/coronavirus/country/tajikistan/" xr:uid="{1A5EE46F-B68A-407F-85B9-0A8C4F40743D}"/>
-    <hyperlink ref="N104" r:id="rId201" display="https://www.worldometers.info/world-population/tajikistan-population/" xr:uid="{9BCB95AB-E07C-4A2E-B827-F147F1D832BC}"/>
-    <hyperlink ref="B105" r:id="rId202" display="https://www.worldometers.info/coronavirus/country/slovakia/" xr:uid="{0199BD11-3B01-4C36-84AC-24517F3AD3FF}"/>
-    <hyperlink ref="N105" r:id="rId203" display="https://www.worldometers.info/world-population/slovakia-population/" xr:uid="{45BF1E52-10D1-4FA4-8250-4EFE6BAB3406}"/>
-    <hyperlink ref="B106" r:id="rId204" display="https://www.worldometers.info/coronavirus/country/jordan/" xr:uid="{820DDF7B-37A3-47E7-B8F3-DEAA3E278B34}"/>
-    <hyperlink ref="N106" r:id="rId205" display="https://www.worldometers.info/world-population/jordan-population/" xr:uid="{ECCB9A8E-23C6-44B7-A065-465C76BA31FD}"/>
-    <hyperlink ref="B107" r:id="rId206" display="https://www.worldometers.info/coronavirus/country/haiti/" xr:uid="{83B32ED1-3C14-4B87-9CAC-820E9959C334}"/>
-    <hyperlink ref="N107" r:id="rId207" display="https://www.worldometers.info/world-population/haiti-population/" xr:uid="{33583DEF-21EF-40E2-9A2A-650C94A60B21}"/>
-    <hyperlink ref="B108" r:id="rId208" display="https://www.worldometers.info/coronavirus/country/gabon/" xr:uid="{5AB0C425-88B9-4C92-9894-92BD4694A559}"/>
-    <hyperlink ref="N108" r:id="rId209" display="https://www.worldometers.info/world-population/gabon-population/" xr:uid="{80019FA1-FC78-487E-96D2-C615B94C1FB4}"/>
-    <hyperlink ref="B109" r:id="rId210" display="https://www.worldometers.info/coronavirus/country/luxembourg/" xr:uid="{FB5352EB-A72B-4387-BA5B-3E2689DE4237}"/>
-    <hyperlink ref="N109" r:id="rId211" display="https://www.worldometers.info/world-population/luxembourg-population/" xr:uid="{D3969460-B178-43B5-B9BE-F0D3F966735E}"/>
-    <hyperlink ref="B110" r:id="rId212" display="https://www.worldometers.info/coronavirus/country/mozambique/" xr:uid="{C2C6848E-49FE-4C7D-B3EB-4A3CD050FF3F}"/>
-    <hyperlink ref="N110" r:id="rId213" display="https://www.worldometers.info/world-population/mozambique-population/" xr:uid="{44DA8EEB-6825-4242-956C-1C04ED5F49CD}"/>
-    <hyperlink ref="B111" r:id="rId214" display="https://www.worldometers.info/coronavirus/country/zimbabwe/" xr:uid="{3EF10F61-1D5A-4C4B-B040-31528B56A973}"/>
-    <hyperlink ref="N111" r:id="rId215" display="https://www.worldometers.info/world-population/zimbabwe-population/" xr:uid="{EF578D19-E235-4CA8-952B-E74E4A03E3DB}"/>
-    <hyperlink ref="B112" r:id="rId216" display="https://www.worldometers.info/coronavirus/country/uganda/" xr:uid="{EE692B7E-6CD0-4C62-9068-4564DCA61EF0}"/>
-    <hyperlink ref="N112" r:id="rId217" display="https://www.worldometers.info/world-population/uganda-population/" xr:uid="{D6E298FB-1DCF-4DC4-90BC-1519AD5B4EEF}"/>
-    <hyperlink ref="B113" r:id="rId218" display="https://www.worldometers.info/coronavirus/country/mauritania/" xr:uid="{CEE9CA08-9118-4A07-A625-3774F848EA95}"/>
-    <hyperlink ref="N113" r:id="rId219" display="https://www.worldometers.info/world-population/mauritania-population/" xr:uid="{E411D4AE-7F28-45E1-B1A0-F0FA3D28B815}"/>
-    <hyperlink ref="B114" r:id="rId220" display="https://www.worldometers.info/coronavirus/country/jamaica/" xr:uid="{E1816719-8301-4CC1-A7CE-6B3F2CE7780C}"/>
-    <hyperlink ref="N114" r:id="rId221" display="https://www.worldometers.info/world-population/jamaica-population/" xr:uid="{A6911324-1398-47FD-A4BC-47F85795FE31}"/>
-    <hyperlink ref="B115" r:id="rId222" display="https://www.worldometers.info/coronavirus/country/georgia/" xr:uid="{0FAF9255-77FE-426A-B202-422B862F30A6}"/>
-    <hyperlink ref="N115" r:id="rId223" display="https://www.worldometers.info/world-population/georgia-population/" xr:uid="{82E024D9-F2A4-4735-8392-7AC1B692E242}"/>
-    <hyperlink ref="B116" r:id="rId224" display="https://www.worldometers.info/coronavirus/country/cabo-verde/" xr:uid="{E143D8B7-4EAD-4F99-8FF1-193A02654C0F}"/>
-    <hyperlink ref="N116" r:id="rId225" display="https://www.worldometers.info/world-population/cabo-verde-population/" xr:uid="{2D68BA63-7231-416B-AF3C-27AEF8A6AB88}"/>
-    <hyperlink ref="B117" r:id="rId226" display="https://www.worldometers.info/coronavirus/country/malawi/" xr:uid="{64B50FB4-355A-4822-A633-89472CF192D3}"/>
-    <hyperlink ref="N117" r:id="rId227" display="https://www.worldometers.info/world-population/malawi-population/" xr:uid="{A68146ED-4E66-4E81-B39D-1073E86C6458}"/>
-    <hyperlink ref="B118" r:id="rId228" display="https://www.worldometers.info/coronavirus/country/slovenia/" xr:uid="{1A745133-76EF-4AA8-A91A-12D8588D0256}"/>
-    <hyperlink ref="N118" r:id="rId229" display="https://www.worldometers.info/world-population/slovenia-population/" xr:uid="{61E37A5C-6586-4686-A9C7-8F99AB2EE96E}"/>
-    <hyperlink ref="B119" r:id="rId230" display="https://www.worldometers.info/coronavirus/country/cuba/" xr:uid="{B448FC3A-9AD5-4838-A087-8E76556092B3}"/>
-    <hyperlink ref="N119" r:id="rId231" display="https://www.worldometers.info/world-population/cuba-population/" xr:uid="{8756D61F-9DF5-4442-8571-A42C67211710}"/>
-    <hyperlink ref="B120" r:id="rId232" display="https://www.worldometers.info/coronavirus/country/swaziland/" xr:uid="{9555501C-1719-4850-B94D-B0EEBB03295C}"/>
-    <hyperlink ref="N120" r:id="rId233" display="https://www.worldometers.info/world-population/swaziland-population/" xr:uid="{397B6B5B-2AE2-412D-BEA5-82C1912DB18E}"/>
-    <hyperlink ref="B121" r:id="rId234" display="https://www.worldometers.info/coronavirus/country/djibouti/" xr:uid="{1EBB934F-2F82-480B-8FBE-C07C423389DF}"/>
-    <hyperlink ref="N121" r:id="rId235" display="https://www.worldometers.info/world-population/djibouti-population/" xr:uid="{A556B0FB-C9B0-4EBD-A367-E98BEE590309}"/>
-    <hyperlink ref="B122" r:id="rId236" display="https://www.worldometers.info/coronavirus/country/china-hong-kong-sar/" xr:uid="{6E09DBCF-1D56-4742-AF99-E56F09F3D0F0}"/>
-    <hyperlink ref="N122" r:id="rId237" display="https://www.worldometers.info/world-population/china-hong-kong-sar-population/" xr:uid="{B818C1B3-87E7-403F-973B-7297D1E8E3A4}"/>
-    <hyperlink ref="B123" r:id="rId238" display="https://www.worldometers.info/coronavirus/country/nicaragua/" xr:uid="{C21A9BB8-CC55-4EC3-B008-394ADD2485F6}"/>
-    <hyperlink ref="N123" r:id="rId239" display="https://www.worldometers.info/world-population/nicaragua-population/" xr:uid="{18BF57EE-6BDD-48F4-81B1-5095C7A40ABA}"/>
-    <hyperlink ref="B124" r:id="rId240" display="https://www.worldometers.info/coronavirus/country/equatorial-guinea/" xr:uid="{16557784-5A45-4218-B200-0F5DB3257F71}"/>
-    <hyperlink ref="N124" r:id="rId241" display="https://www.worldometers.info/world-population/equatorial-guinea-population/" xr:uid="{9343ACCF-DF52-4FB1-A876-A4F90598F6BE}"/>
-    <hyperlink ref="B125" r:id="rId242" display="https://www.worldometers.info/coronavirus/country/congo/" xr:uid="{743FD756-283A-4D85-B249-075E748F2F8D}"/>
-    <hyperlink ref="N125" r:id="rId243" display="https://www.worldometers.info/world-population/congo-population/" xr:uid="{8E819119-9459-4ABB-8125-1AAB085DD672}"/>
-    <hyperlink ref="B126" r:id="rId244" display="https://www.worldometers.info/coronavirus/country/suriname/" xr:uid="{02C77410-9251-45FC-A928-9EE5C62B60D5}"/>
-    <hyperlink ref="N126" r:id="rId245" display="https://www.worldometers.info/world-population/suriname-population/" xr:uid="{4DB8E41D-A95B-4B60-A5F5-5D736B238E9D}"/>
-    <hyperlink ref="B127" r:id="rId246" display="https://www.worldometers.info/coronavirus/country/rwanda/" xr:uid="{4B69ED25-78E0-49F6-8413-ADB6B017C421}"/>
-    <hyperlink ref="N127" r:id="rId247" display="https://www.worldometers.info/world-population/rwanda-population/" xr:uid="{3BF3622E-7B17-420E-A25D-711DD936AD5A}"/>
-    <hyperlink ref="B128" r:id="rId248" display="https://www.worldometers.info/coronavirus/country/central-african-republic/" xr:uid="{4E2EB1D2-F42A-4C32-898F-2DF28D71F5B4}"/>
-    <hyperlink ref="N128" r:id="rId249" display="https://www.worldometers.info/world-population/central-african-republic-population/" xr:uid="{AC2BDD49-3AD9-4876-B9C2-34BAFA5B3540}"/>
-    <hyperlink ref="B129" r:id="rId250" display="https://www.worldometers.info/coronavirus/country/angola/" xr:uid="{EFF3EBCE-4633-466F-8133-84EC20BE421A}"/>
-    <hyperlink ref="N129" r:id="rId251" display="https://www.worldometers.info/world-population/angola-population/" xr:uid="{0189EF68-5346-4FFE-9BDE-408FB070D04B}"/>
-    <hyperlink ref="B130" r:id="rId252" display="https://www.worldometers.info/coronavirus/country/lithuania/" xr:uid="{6BCE31FA-676E-46C5-891C-020B9A7C5F86}"/>
-    <hyperlink ref="N130" r:id="rId253" display="https://www.worldometers.info/world-population/lithuania-population/" xr:uid="{8E37A561-8F36-4B53-A187-32B53F1178A4}"/>
-    <hyperlink ref="B131" r:id="rId254" display="https://www.worldometers.info/coronavirus/country/guadeloupe/" xr:uid="{683FBE84-8D75-4C1F-ABE0-5D6FCC75D81B}"/>
-    <hyperlink ref="N131" r:id="rId255" display="https://www.worldometers.info/world-population/guadeloupe-population/" xr:uid="{5591D2D2-F29B-49A9-845D-F497E10EEFED}"/>
-    <hyperlink ref="B132" r:id="rId256" display="https://www.worldometers.info/coronavirus/country/trinidad-and-tobago/" xr:uid="{0C7D70DB-21B5-4F04-A204-20FBF3DCFC3A}"/>
-    <hyperlink ref="N132" r:id="rId257" display="https://www.worldometers.info/world-population/trinidad-and-tobago-population/" xr:uid="{FCAAC53C-2B8D-450A-9FCF-1F0A08CD155D}"/>
-    <hyperlink ref="B133" r:id="rId258" display="https://www.worldometers.info/coronavirus/country/syria/" xr:uid="{BBCDDADA-59C3-425A-81C4-DEBD5E875908}"/>
-    <hyperlink ref="N133" r:id="rId259" display="https://www.worldometers.info/world-population/syria-population/" xr:uid="{7D3AAC81-2145-479D-907C-1B20C2A6CA43}"/>
-    <hyperlink ref="B134" r:id="rId260" display="https://www.worldometers.info/coronavirus/country/reunion/" xr:uid="{2B077D74-F60D-4034-8E3D-1EE2B1EFBCFC}"/>
-    <hyperlink ref="N134" r:id="rId261" display="https://www.worldometers.info/world-population/reunion-population/" xr:uid="{904FE805-B73A-4CA6-A1ED-3121E07D4E0B}"/>
-    <hyperlink ref="B135" r:id="rId262" display="https://www.worldometers.info/coronavirus/country/aruba/" xr:uid="{B7BD6A8E-17A8-474C-9FE4-A698367C457E}"/>
-    <hyperlink ref="N135" r:id="rId263" display="https://www.worldometers.info/world-population/aruba-population/" xr:uid="{681BFB14-CAC3-4F08-86A8-BF4F6F30B97A}"/>
-    <hyperlink ref="B136" r:id="rId264" display="https://www.worldometers.info/coronavirus/country/bahamas/" xr:uid="{560F9150-8BE0-4D78-8D2A-3DFBDA38EBBF}"/>
-    <hyperlink ref="N136" r:id="rId265" display="https://www.worldometers.info/world-population/bahamas-population/" xr:uid="{BDD4E62B-8D32-4A4C-A404-830B1B7B505F}"/>
-    <hyperlink ref="B137" r:id="rId266" display="https://www.worldometers.info/coronavirus/country/somalia/" xr:uid="{E1F3668B-630C-4928-A0C8-157C05428683}"/>
-    <hyperlink ref="N137" r:id="rId267" display="https://www.worldometers.info/world-population/somalia-population/" xr:uid="{EAD8863F-3CCE-470C-9D75-F55DE2F700B5}"/>
-    <hyperlink ref="B138" r:id="rId268" display="https://www.worldometers.info/coronavirus/country/gambia/" xr:uid="{9C02A33B-37E1-4C7A-9217-AB47EEB1BEB5}"/>
-    <hyperlink ref="N138" r:id="rId269" display="https://www.worldometers.info/world-population/gambia-population/" xr:uid="{8EE9A219-6187-4DD1-86A2-176DB7CE3853}"/>
-    <hyperlink ref="B139" r:id="rId270" display="https://www.worldometers.info/coronavirus/country/thailand/" xr:uid="{7EF3AB1D-45AD-44DD-89B3-2A2494188EC5}"/>
-    <hyperlink ref="N139" r:id="rId271" display="https://www.worldometers.info/world-population/thailand-population/" xr:uid="{343A35F8-A7C3-4A56-8F1D-CC656EBF85A4}"/>
-    <hyperlink ref="B140" r:id="rId272" display="https://www.worldometers.info/coronavirus/country/mayotte/" xr:uid="{F2735ECB-C827-4F5D-8F95-2B2C9EF67C3F}"/>
-    <hyperlink ref="N140" r:id="rId273" display="https://www.worldometers.info/world-population/mayotte-population/" xr:uid="{99EF7269-128D-4096-9F63-8A5B31DFF59D}"/>
-    <hyperlink ref="B141" r:id="rId274" display="https://www.worldometers.info/coronavirus/country/sri-lanka/" xr:uid="{FDF76097-0C19-4696-9239-D5B00673B276}"/>
-    <hyperlink ref="N141" r:id="rId275" display="https://www.worldometers.info/world-population/sri-lanka-population/" xr:uid="{B10A1D44-2BAB-46AD-9904-0D8CEB998094}"/>
-    <hyperlink ref="B142" r:id="rId276" display="https://www.worldometers.info/coronavirus/country/estonia/" xr:uid="{7CE23593-254C-4FC7-A923-91F10D579016}"/>
-    <hyperlink ref="N142" r:id="rId277" display="https://www.worldometers.info/world-population/estonia-population/" xr:uid="{541450DF-04AA-4D74-8DF2-E31FF55D9963}"/>
-    <hyperlink ref="B143" r:id="rId278" display="https://www.worldometers.info/coronavirus/country/botswana/" xr:uid="{7F7E9715-8EFA-4BFE-93BF-0758B69F75DB}"/>
-    <hyperlink ref="N143" r:id="rId279" display="https://www.worldometers.info/world-population/botswana-population/" xr:uid="{C7E58F8B-A048-44F1-AF18-243C94CDE6C9}"/>
-    <hyperlink ref="B144" r:id="rId280" display="https://www.worldometers.info/coronavirus/country/mali/" xr:uid="{98430BED-9DA9-4A3E-BE73-314D900C22B0}"/>
-    <hyperlink ref="N144" r:id="rId281" display="https://www.worldometers.info/world-population/mali-population/" xr:uid="{BFA1239E-C0FC-456D-844C-2564D611CF20}"/>
-    <hyperlink ref="B145" r:id="rId282" display="https://www.worldometers.info/coronavirus/country/malta/" xr:uid="{240EB7E9-F3A8-426A-A86B-753A99372D3A}"/>
-    <hyperlink ref="N145" r:id="rId283" display="https://www.worldometers.info/world-population/malta-population/" xr:uid="{BC1BB3AC-412D-468D-804F-C2E4792451FC}"/>
-    <hyperlink ref="B146" r:id="rId284" display="https://www.worldometers.info/coronavirus/country/guyana/" xr:uid="{A9062EFF-0A03-4010-BF36-EA6138DD9827}"/>
-    <hyperlink ref="N146" r:id="rId285" display="https://www.worldometers.info/world-population/guyana-population/" xr:uid="{BF48F79E-7C2E-4B53-BCF5-9E9B9D6D2F51}"/>
-    <hyperlink ref="B147" r:id="rId286" display="https://www.worldometers.info/coronavirus/country/south-sudan/" xr:uid="{DA85D3FE-2AE3-4647-8E77-5E308134F91B}"/>
-    <hyperlink ref="N147" r:id="rId287" display="https://www.worldometers.info/world-population/south-sudan-population/" xr:uid="{EBE0EA9E-A6C3-456C-8D55-7CBDA7655346}"/>
-    <hyperlink ref="B148" r:id="rId288" display="https://www.worldometers.info/coronavirus/country/iceland/" xr:uid="{A266DA45-50B2-4508-B9D7-EFE06C8914D1}"/>
-    <hyperlink ref="N148" r:id="rId289" display="https://www.worldometers.info/world-population/iceland-population/" xr:uid="{11FF645B-E0F2-4B23-BBF7-540CF5AC7BBA}"/>
-    <hyperlink ref="B149" r:id="rId290" display="https://www.worldometers.info/coronavirus/country/benin/" xr:uid="{ECE4B3F2-E8E5-45A2-80D0-CAA1DD202C22}"/>
-    <hyperlink ref="N149" r:id="rId291" display="https://www.worldometers.info/world-population/benin-population/" xr:uid="{3F7456BD-818F-4944-8B7D-730BF60FB49E}"/>
-    <hyperlink ref="B150" r:id="rId292" display="https://www.worldometers.info/coronavirus/country/guinea-bissau/" xr:uid="{E92AA734-1A13-4077-BB8D-D886637CE534}"/>
-    <hyperlink ref="N150" r:id="rId293" display="https://www.worldometers.info/world-population/guinea-bissau-population/" xr:uid="{9F87C009-64C5-4B29-8FE5-D9B46FEF33A4}"/>
-    <hyperlink ref="B151" r:id="rId294" display="https://www.worldometers.info/coronavirus/country/sierra-leone/" xr:uid="{BE9221E9-0F2A-4CE0-A1E7-CFBD2C371268}"/>
-    <hyperlink ref="N151" r:id="rId295" display="https://www.worldometers.info/world-population/sierra-leone-population/" xr:uid="{FBF10C2B-05EC-4201-A74D-592C4F65EE48}"/>
-    <hyperlink ref="B152" r:id="rId296" display="https://www.worldometers.info/coronavirus/country/yemen/" xr:uid="{30044166-511C-4B7E-A260-4A63132EF3B9}"/>
-    <hyperlink ref="N152" r:id="rId297" display="https://www.worldometers.info/world-population/yemen-population/" xr:uid="{5D66BCE5-EEF3-48BD-8B5B-E9AF6EAFC79B}"/>
-    <hyperlink ref="B153" r:id="rId298" display="https://www.worldometers.info/coronavirus/country/burkina-faso/" xr:uid="{338A4B92-6ACE-40BD-81EB-8605D0896D26}"/>
-    <hyperlink ref="N153" r:id="rId299" display="https://www.worldometers.info/world-population/burkina-faso-population/" xr:uid="{8A845CCD-3841-4E8D-8229-1F1BBAD2CCF8}"/>
-    <hyperlink ref="B154" r:id="rId300" display="https://www.worldometers.info/coronavirus/country/uruguay/" xr:uid="{815B0E84-A586-4292-8909-8BDBA988BF10}"/>
-    <hyperlink ref="N154" r:id="rId301" display="https://www.worldometers.info/world-population/uruguay-population/" xr:uid="{38BBEC3F-922E-4713-9202-BE395AE2EDB4}"/>
-    <hyperlink ref="B155" r:id="rId302" display="https://www.worldometers.info/coronavirus/country/andorra/" xr:uid="{FAD93770-42B0-46F3-A083-E4555D4319D8}"/>
-    <hyperlink ref="N155" r:id="rId303" display="https://www.worldometers.info/world-population/andorra-population/" xr:uid="{5E39DF9B-D30C-4A3E-A3F9-7118599D2167}"/>
-    <hyperlink ref="B156" r:id="rId304" display="https://www.worldometers.info/coronavirus/country/belize/" xr:uid="{B5E0BDD5-6A75-411F-A2B7-E1CEDD82897B}"/>
-    <hyperlink ref="N156" r:id="rId305" display="https://www.worldometers.info/world-population/belize-population/" xr:uid="{99EDEFBC-F4E0-451A-84F0-494F43A35BAD}"/>
-    <hyperlink ref="B157" r:id="rId306" display="https://www.worldometers.info/coronavirus/country/new-zealand/" xr:uid="{D3DF3F40-92BA-4BF2-9012-CF80FBEAD25E}"/>
-    <hyperlink ref="B158" r:id="rId307" display="https://www.worldometers.info/coronavirus/country/togo/" xr:uid="{7446DBDB-7A0A-4FCD-ACAC-1F38BC1BF831}"/>
-    <hyperlink ref="N158" r:id="rId308" display="https://www.worldometers.info/world-population/togo-population/" xr:uid="{3B0EF1C1-073A-4244-A250-1F423ABF3A15}"/>
-    <hyperlink ref="B159" r:id="rId309" display="https://www.worldometers.info/coronavirus/country/latvia/" xr:uid="{0E26EC9A-B88B-4750-A8DB-47DBFAE3B86F}"/>
-    <hyperlink ref="N159" r:id="rId310" display="https://www.worldometers.info/world-population/latvia-population/" xr:uid="{B49B8E94-8245-494B-BE03-5ED45DF6E5A3}"/>
-    <hyperlink ref="B160" r:id="rId311" display="https://www.worldometers.info/coronavirus/country/cyprus/" xr:uid="{D1A3B7FB-0940-410E-923A-9431C4921ADE}"/>
-    <hyperlink ref="N160" r:id="rId312" display="https://www.worldometers.info/world-population/cyprus-population/" xr:uid="{89B27F03-67EA-4C41-8858-DE2C9C3ACAC2}"/>
-    <hyperlink ref="B161" r:id="rId313" display="https://www.worldometers.info/coronavirus/country/french-polynesia/" xr:uid="{6ECA39F3-EBDD-4564-BFCC-D524F2B81D08}"/>
-    <hyperlink ref="N161" r:id="rId314" display="https://www.worldometers.info/world-population/french-polynesia-population/" xr:uid="{B4F61AD3-C695-4A5C-B582-A4FB28F4A0B7}"/>
-    <hyperlink ref="B162" r:id="rId315" display="https://www.worldometers.info/coronavirus/country/lesotho/" xr:uid="{D66CC1BB-E131-4C72-B0FA-41B49C4E0756}"/>
-    <hyperlink ref="N162" r:id="rId316" display="https://www.worldometers.info/world-population/lesotho-population/" xr:uid="{D9078055-1834-4457-9CD0-5C01B76C3110}"/>
-    <hyperlink ref="B163" r:id="rId317" display="https://www.worldometers.info/coronavirus/country/liberia/" xr:uid="{F3CA5754-B9E7-406E-9D30-7712400E2E88}"/>
-    <hyperlink ref="N163" r:id="rId318" display="https://www.worldometers.info/world-population/liberia-population/" xr:uid="{DD86468E-3E5B-4166-932F-D3A1D363BC89}"/>
-    <hyperlink ref="B164" r:id="rId319" display="https://www.worldometers.info/coronavirus/country/martinique/" xr:uid="{9D342AC4-8AA7-4F67-B2CF-B8521A7A5F03}"/>
-    <hyperlink ref="N164" r:id="rId320" display="https://www.worldometers.info/world-population/martinique-population/" xr:uid="{54893C3A-C3FF-4E3F-8961-1959F2BCB9AF}"/>
-    <hyperlink ref="B165" r:id="rId321" display="https://www.worldometers.info/coronavirus/country/niger/" xr:uid="{AC97CBEF-5F21-43D5-AECD-D39F388FDBC6}"/>
-    <hyperlink ref="N165" r:id="rId322" display="https://www.worldometers.info/world-population/niger-population/" xr:uid="{39884D9F-D5DB-4AB3-B3CF-DCABFBF2B8A6}"/>
-    <hyperlink ref="B166" r:id="rId323" display="https://www.worldometers.info/coronavirus/country/chad/" xr:uid="{94F7D6BC-B0B3-43BC-9B43-AE57DBE683D9}"/>
-    <hyperlink ref="N166" r:id="rId324" display="https://www.worldometers.info/world-population/chad-population/" xr:uid="{BA4FF892-3339-4E52-82F9-CCDE09C3F209}"/>
-    <hyperlink ref="B167" r:id="rId325" display="https://www.worldometers.info/coronavirus/country/viet-nam/" xr:uid="{C3705424-38F0-49DD-B565-6008C2ABC020}"/>
-    <hyperlink ref="N167" r:id="rId326" display="https://www.worldometers.info/world-population/viet-nam-population/" xr:uid="{1C81A464-F7BB-48E3-8795-00E1110E9CE3}"/>
-    <hyperlink ref="B168" r:id="rId327" display="https://www.worldometers.info/coronavirus/country/sao-tome-and-principe/" xr:uid="{6D9BB1F8-0B65-4C84-B37E-3938D42E9831}"/>
-    <hyperlink ref="N168" r:id="rId328" display="https://www.worldometers.info/world-population/sao-tome-and-principe-population/" xr:uid="{1553B22B-27A6-4F5F-AB5E-DB74AA2D6F9D}"/>
-    <hyperlink ref="B169" r:id="rId329" display="https://www.worldometers.info/coronavirus/country/san-marino/" xr:uid="{46A8390E-6929-4EFA-9B8B-A3AA9715BF16}"/>
-    <hyperlink ref="N169" r:id="rId330" display="https://www.worldometers.info/world-population/san-marino-population/" xr:uid="{74A4480A-8DFA-4A62-A7EB-6D1BF044436C}"/>
-    <hyperlink ref="B171" r:id="rId331" display="https://www.worldometers.info/coronavirus/country/turks-and-caicos-islands/" xr:uid="{3FF202CC-F4A7-4B88-9B81-1644BA9EF4AA}"/>
-    <hyperlink ref="N171" r:id="rId332" display="https://www.worldometers.info/world-population/turks-and-caicos-islands-population/" xr:uid="{4D764E43-E369-4BF0-B7E0-88981C0B1455}"/>
-    <hyperlink ref="B172" r:id="rId333" display="https://www.worldometers.info/coronavirus/country/channel-islands/" xr:uid="{D97DD19B-6C20-483D-9F76-CD9ED160F5CA}"/>
-    <hyperlink ref="N172" r:id="rId334" display="https://www.worldometers.info/world-population/channel-islands-population/" xr:uid="{BB25295D-476A-4A75-9131-2FB26AD15801}"/>
-    <hyperlink ref="B173" r:id="rId335" display="https://www.worldometers.info/coronavirus/country/sint-maarten/" xr:uid="{996B2176-FBE8-4927-96CF-B1FE522FC444}"/>
-    <hyperlink ref="N173" r:id="rId336" display="https://www.worldometers.info/world-population/sint-maarten-population/" xr:uid="{76EE9F5B-E536-439D-A509-223841A5C766}"/>
-    <hyperlink ref="B174" r:id="rId337" display="https://www.worldometers.info/coronavirus/country/papua-new-guinea/" xr:uid="{F139132D-91A0-4464-8EF4-3E8360C69706}"/>
-    <hyperlink ref="N174" r:id="rId338" display="https://www.worldometers.info/world-population/papua-new-guinea-population/" xr:uid="{E5096E24-A6D8-473C-A08E-9F6B5F39F88E}"/>
-    <hyperlink ref="B175" r:id="rId339" display="https://www.worldometers.info/coronavirus/country/taiwan/" xr:uid="{840B2098-CFDB-495F-9E66-AA1654F3ACB1}"/>
-    <hyperlink ref="N175" r:id="rId340" display="https://www.worldometers.info/world-population/taiwan-population/" xr:uid="{CF517E4E-FE7B-45C7-A6C7-C700766362B0}"/>
-    <hyperlink ref="B176" r:id="rId341" display="https://www.worldometers.info/coronavirus/country/tanzania/" xr:uid="{3F04EC44-3AAD-4FC6-B193-A6020A421C19}"/>
-    <hyperlink ref="N176" r:id="rId342" display="https://www.worldometers.info/world-population/tanzania-population/" xr:uid="{60018510-8DB4-475D-8A51-F01254BDCD57}"/>
-    <hyperlink ref="B177" r:id="rId343" display="https://www.worldometers.info/coronavirus/country/burundi/" xr:uid="{1D52C518-8EE9-417E-8854-106A73A7CA7A}"/>
-    <hyperlink ref="N177" r:id="rId344" display="https://www.worldometers.info/world-population/burundi-population/" xr:uid="{BB97A78F-5ED2-47AB-9F18-80019DA5AF0B}"/>
-    <hyperlink ref="B178" r:id="rId345" display="https://www.worldometers.info/coronavirus/country/comoros/" xr:uid="{029B2052-13C0-4B47-84CC-0C93BFBEFBA2}"/>
-    <hyperlink ref="N178" r:id="rId346" display="https://www.worldometers.info/world-population/comoros-population/" xr:uid="{A8DC86EB-B345-4C0D-880F-CEC9531EC163}"/>
-    <hyperlink ref="B179" r:id="rId347" display="https://www.worldometers.info/coronavirus/country/faeroe-islands/" xr:uid="{5866CA93-AA9E-418C-88BF-17E0BBF0A471}"/>
-    <hyperlink ref="N179" r:id="rId348" display="https://www.worldometers.info/world-population/faeroe-islands-population/" xr:uid="{71B2EABF-EEF8-4C72-83CB-D3D52979BE5A}"/>
-    <hyperlink ref="B180" r:id="rId349" display="https://www.worldometers.info/coronavirus/country/gibraltar/" xr:uid="{C4E85AC4-F802-4D66-913C-C684D05BAA9D}"/>
-    <hyperlink ref="N180" r:id="rId350" display="https://www.worldometers.info/world-population/gibraltar-population/" xr:uid="{75118EF0-0650-4C35-9F59-BDC4C16527F2}"/>
-    <hyperlink ref="B181" r:id="rId351" display="https://www.worldometers.info/coronavirus/country/saint-martin/" xr:uid="{937FF53B-6B4D-442F-B751-D7930161B8ED}"/>
-    <hyperlink ref="N181" r:id="rId352" display="https://www.worldometers.info/world-population/saint-martin-population/" xr:uid="{B443BFCE-1A0A-482D-B140-49C16375F856}"/>
-    <hyperlink ref="B182" r:id="rId353" display="https://www.worldometers.info/coronavirus/country/eritrea/" xr:uid="{D856DEF4-E10B-41AB-8A62-43AE15D9B67F}"/>
-    <hyperlink ref="N182" r:id="rId354" display="https://www.worldometers.info/world-population/eritrea-population/" xr:uid="{790CC8F5-56FD-4927-9E1D-2D6B0908D20E}"/>
-    <hyperlink ref="B183" r:id="rId355" display="https://www.worldometers.info/coronavirus/country/mauritius/" xr:uid="{BECEC645-142D-4E53-B942-41B13DF202EE}"/>
-    <hyperlink ref="N183" r:id="rId356" display="https://www.worldometers.info/world-population/mauritius-population/" xr:uid="{12B8B45E-AAC2-4787-A55C-70084D72F748}"/>
-    <hyperlink ref="B184" r:id="rId357" display="https://www.worldometers.info/coronavirus/country/curacao/" xr:uid="{B8E30E00-A510-4CEC-815E-ABB52FFC1ED2}"/>
-    <hyperlink ref="N184" r:id="rId358" display="https://www.worldometers.info/world-population/curacao-population/" xr:uid="{821B2A53-D4F1-4742-BB5F-B6F0952D1850}"/>
-    <hyperlink ref="B185" r:id="rId359" display="https://www.worldometers.info/coronavirus/country/isle-of-man/" xr:uid="{5252D9B5-CFAF-46D4-A655-C85E253D7EB2}"/>
-    <hyperlink ref="N185" r:id="rId360" display="https://www.worldometers.info/world-population/isle-of-man-population/" xr:uid="{842FF454-B12B-4E8F-B7EB-FA581C080E0F}"/>
-    <hyperlink ref="B186" r:id="rId361" display="https://www.worldometers.info/coronavirus/country/mongolia/" xr:uid="{BBF04B6B-6193-49CC-B909-29000BCB8394}"/>
-    <hyperlink ref="N186" r:id="rId362" display="https://www.worldometers.info/world-population/mongolia-population/" xr:uid="{DF738FDC-1E83-4E77-B997-9FE9D57C4620}"/>
-    <hyperlink ref="B187" r:id="rId363" display="https://www.worldometers.info/coronavirus/country/bhutan/" xr:uid="{F84F9ABB-E600-404F-BA97-610C5D8994E5}"/>
-    <hyperlink ref="N187" r:id="rId364" display="https://www.worldometers.info/world-population/bhutan-population/" xr:uid="{AA4DAA41-54DD-4C0D-B929-BEC3BBCA6E5C}"/>
-    <hyperlink ref="B188" r:id="rId365" display="https://www.worldometers.info/coronavirus/country/cambodia/" xr:uid="{93D3A60C-85EC-4BB6-8EAD-0283007ACFBC}"/>
-    <hyperlink ref="N188" r:id="rId366" display="https://www.worldometers.info/world-population/cambodia-population/" xr:uid="{384BD8CB-02AE-4185-AE79-BF7872E15DCD}"/>
-    <hyperlink ref="B189" r:id="rId367" display="https://www.worldometers.info/coronavirus/country/monaco/" xr:uid="{CA77739C-2B0C-4DBC-85B7-B1EF905E3F2D}"/>
-    <hyperlink ref="N189" r:id="rId368" display="https://www.worldometers.info/world-population/monaco-population/" xr:uid="{F2B8EDA3-9767-461D-85FA-92AEF7C2D87F}"/>
-    <hyperlink ref="B190" r:id="rId369" display="https://www.worldometers.info/coronavirus/country/cayman-islands/" xr:uid="{3A5A5DB3-B498-4BBC-918F-C46D551277C1}"/>
-    <hyperlink ref="N190" r:id="rId370" display="https://www.worldometers.info/world-population/cayman-islands-population/" xr:uid="{A9FFA719-DA02-4474-8612-78B0EED8EF7C}"/>
-    <hyperlink ref="B191" r:id="rId371" display="https://www.worldometers.info/coronavirus/country/barbados/" xr:uid="{84D9DEB4-2575-48F7-8053-6CA47E026F2A}"/>
-    <hyperlink ref="N191" r:id="rId372" display="https://www.worldometers.info/world-population/barbados-population/" xr:uid="{CF8EA112-906D-4A6A-B783-893E4987DF88}"/>
-    <hyperlink ref="B192" r:id="rId373" display="https://www.worldometers.info/coronavirus/country/bermuda/" xr:uid="{ED581D62-DACE-4BF1-95E5-F16D451019ED}"/>
-    <hyperlink ref="N192" r:id="rId374" display="https://www.worldometers.info/world-population/bermuda-population/" xr:uid="{5A24E3F7-747B-4F00-B729-66B14CFCFE4D}"/>
-    <hyperlink ref="B193" r:id="rId375" display="https://www.worldometers.info/coronavirus/country/brunei-darussalam/" xr:uid="{F6EC0F34-7E72-466C-9225-9DCDE12F065E}"/>
-    <hyperlink ref="N193" r:id="rId376" display="https://www.worldometers.info/world-population/brunei-darussalam-population/" xr:uid="{6D7E5A4B-5771-4ADB-A720-A2404093FB2B}"/>
-    <hyperlink ref="B194" r:id="rId377" display="https://www.worldometers.info/coronavirus/country/seychelles/" xr:uid="{C97103E4-FF34-4FE9-A1C8-514760D18411}"/>
-    <hyperlink ref="N194" r:id="rId378" display="https://www.worldometers.info/world-population/seychelles-population/" xr:uid="{D593802E-8991-4672-85A7-5C106185A65A}"/>
-    <hyperlink ref="B195" r:id="rId379" display="https://www.worldometers.info/coronavirus/country/liechtenstein/" xr:uid="{BD131F64-CD02-4BD0-AFD7-25ADD72B7077}"/>
-    <hyperlink ref="N195" r:id="rId380" display="https://www.worldometers.info/world-population/liechtenstein-population/" xr:uid="{D43BD384-0604-4043-A03A-B6B3E284C1B8}"/>
-    <hyperlink ref="B196" r:id="rId381" display="https://www.worldometers.info/coronavirus/country/antigua-and-barbuda/" xr:uid="{0F2676CA-AF19-402F-A0E3-4C76A577BCBD}"/>
-    <hyperlink ref="N196" r:id="rId382" display="https://www.worldometers.info/world-population/antigua-and-barbuda-population/" xr:uid="{DEDA529C-541B-4B35-B1B5-8BEF82D2D2ED}"/>
-    <hyperlink ref="B197" r:id="rId383" display="https://www.worldometers.info/coronavirus/country/caribbean-netherlands/" xr:uid="{AE2E0ECE-F53F-4D81-A8F8-894FF53F6D51}"/>
-    <hyperlink ref="N197" r:id="rId384" display="https://www.worldometers.info/world-population/caribbean-netherlands-population/" xr:uid="{4962F9DE-0535-41A7-8D7F-36BF4889BC6A}"/>
-    <hyperlink ref="B198" r:id="rId385" display="https://www.worldometers.info/coronavirus/country/british-virgin-islands/" xr:uid="{3B659731-33B6-484E-8826-36181E495D30}"/>
-    <hyperlink ref="N198" r:id="rId386" display="https://www.worldometers.info/world-population/british-virgin-islands-population/" xr:uid="{086B6600-D960-4E2B-B2DC-E9A3DEAE3CCF}"/>
-    <hyperlink ref="B199" r:id="rId387" display="https://www.worldometers.info/coronavirus/country/saint-vincent-and-the-grenadines/" xr:uid="{7CE3635B-7E5C-4642-BA34-8BE9538BAB03}"/>
-    <hyperlink ref="N199" r:id="rId388" display="https://www.worldometers.info/world-population/saint-vincent-and-the-grenadines-population/" xr:uid="{4D92E970-32BA-401F-B965-3F04BC9C01B0}"/>
-    <hyperlink ref="B200" r:id="rId389" display="https://www.worldometers.info/coronavirus/country/saint-barthelemy/" xr:uid="{865556EF-5300-4182-9481-256E37FB3718}"/>
-    <hyperlink ref="N200" r:id="rId390" display="https://www.worldometers.info/world-population/saint-barthelemy-population/" xr:uid="{154AE0EB-6D04-4D89-AF61-76B9A94BDAFF}"/>
-    <hyperlink ref="B201" r:id="rId391" display="https://www.worldometers.info/coronavirus/country/china-macao-sar/" xr:uid="{9E084458-8774-48D3-AEAC-A3DDF3873E83}"/>
-    <hyperlink ref="N201" r:id="rId392" display="https://www.worldometers.info/world-population/china-macao-sar-population/" xr:uid="{A6B76BC8-AD9B-42D2-BBE0-F4A50DF922B3}"/>
-    <hyperlink ref="B202" r:id="rId393" display="https://www.worldometers.info/coronavirus/country/fiji/" xr:uid="{99420411-B2BB-4245-B72D-4E8B9972401E}"/>
-    <hyperlink ref="N202" r:id="rId394" display="https://www.worldometers.info/world-population/fiji-population/" xr:uid="{BB4249EE-C9EE-4FAC-AC7E-73295329BDD0}"/>
-    <hyperlink ref="B203" r:id="rId395" display="https://www.worldometers.info/coronavirus/country/dominica/" xr:uid="{E69DFBA2-133B-40C1-9865-7BCED3C8DB42}"/>
-    <hyperlink ref="N203" r:id="rId396" display="https://www.worldometers.info/world-population/dominica-population/" xr:uid="{6714517B-FB92-4DED-9BE2-75730A0CCE6E}"/>
-    <hyperlink ref="B204" r:id="rId397" display="https://www.worldometers.info/coronavirus/country/new-caledonia/" xr:uid="{8B4F4E43-FC8D-4204-A264-DDC78D8D118F}"/>
-    <hyperlink ref="N204" r:id="rId398" display="https://www.worldometers.info/world-population/new-caledonia-population/" xr:uid="{1CF27D73-726D-49BD-A44B-D2BC72C88ED5}"/>
-    <hyperlink ref="B205" r:id="rId399" display="https://www.worldometers.info/coronavirus/country/saint-lucia/" xr:uid="{17F8A774-148B-4980-A436-5553C4E6C968}"/>
-    <hyperlink ref="N205" r:id="rId400" display="https://www.worldometers.info/world-population/saint-lucia-population/" xr:uid="{20C648C7-C801-4E44-B6BA-EEAA94301F7E}"/>
-    <hyperlink ref="B206" r:id="rId401" display="https://www.worldometers.info/coronavirus/country/timor-leste/" xr:uid="{F4677C6A-09F7-4D30-9A87-D0D9909CB29C}"/>
-    <hyperlink ref="N206" r:id="rId402" display="https://www.worldometers.info/world-population/timor-leste-population/" xr:uid="{462B5041-42EC-4F8E-BE22-75EE8CD611CB}"/>
-    <hyperlink ref="B207" r:id="rId403" display="https://www.worldometers.info/coronavirus/country/grenada/" xr:uid="{46F4B330-9695-45FB-96D3-966C514EEE18}"/>
-    <hyperlink ref="N207" r:id="rId404" display="https://www.worldometers.info/world-population/grenada-population/" xr:uid="{02356E06-A3CC-4CB4-B66B-EC23B184F1F5}"/>
-    <hyperlink ref="B208" r:id="rId405" display="https://www.worldometers.info/coronavirus/country/laos/" xr:uid="{1B1B5082-1E8B-4825-96BD-7C3108869DDE}"/>
-    <hyperlink ref="N208" r:id="rId406" display="https://www.worldometers.info/world-population/laos-population/" xr:uid="{94DA87F8-F791-4383-89FF-F0C85DEABF28}"/>
-    <hyperlink ref="B209" r:id="rId407" display="https://www.worldometers.info/coronavirus/country/saint-kitts-and-nevis/" xr:uid="{02293070-3264-4CDF-AC80-70E2F64C4EBE}"/>
-    <hyperlink ref="N209" r:id="rId408" display="https://www.worldometers.info/world-population/saint-kitts-and-nevis-population/" xr:uid="{D2D741D7-A7CC-4770-9CE4-504C3953E9BD}"/>
-    <hyperlink ref="B210" r:id="rId409" display="https://www.worldometers.info/coronavirus/country/saint-pierre-and-miquelon/" xr:uid="{D7D30615-8930-4FC9-B612-8C579583AC17}"/>
-    <hyperlink ref="N210" r:id="rId410" display="https://www.worldometers.info/world-population/saint-pierre-and-miquelon-population/" xr:uid="{73CD44BE-F1C0-4CF6-B6C4-F0CDB9AFD414}"/>
-    <hyperlink ref="B211" r:id="rId411" display="https://www.worldometers.info/coronavirus/country/greenland/" xr:uid="{2E39E2DA-5FD1-47B5-8800-1F26DA2080A5}"/>
-    <hyperlink ref="N211" r:id="rId412" display="https://www.worldometers.info/world-population/greenland-population/" xr:uid="{80172D3C-22F9-41E5-8F0C-1D35ACCB0511}"/>
-    <hyperlink ref="B212" r:id="rId413" display="https://www.worldometers.info/coronavirus/country/montserrat/" xr:uid="{9AF2B861-AFC3-48CA-85AC-FE7283B9E489}"/>
-    <hyperlink ref="N212" r:id="rId414" display="https://www.worldometers.info/world-population/montserrat-population/" xr:uid="{8E615AD8-71B2-47FA-B959-547BBD513B1C}"/>
-    <hyperlink ref="B213" r:id="rId415" display="https://www.worldometers.info/coronavirus/country/falkland-islands-malvinas/" xr:uid="{C1ED97D6-35FC-43CC-BA53-5465A51C2201}"/>
-    <hyperlink ref="N213" r:id="rId416" display="https://www.worldometers.info/world-population/falkland-islands-malvinas-population/" xr:uid="{1F1D0429-5C12-4923-A169-20F195CC3D41}"/>
-    <hyperlink ref="B214" r:id="rId417" display="https://www.worldometers.info/coronavirus/country/holy-see/" xr:uid="{A58A3366-1B51-4212-9BE0-DE5D96AC8D53}"/>
-    <hyperlink ref="N214" r:id="rId418" display="https://www.worldometers.info/world-population/holy-see-population/" xr:uid="{A7DFD9C1-2296-4008-B539-4C41D79A82FF}"/>
-    <hyperlink ref="B215" r:id="rId419" display="https://www.worldometers.info/coronavirus/country/western-sahara/" xr:uid="{CAD0218D-C207-47DC-B01A-44FBB0C32AB9}"/>
-    <hyperlink ref="N215" r:id="rId420" display="https://www.worldometers.info/world-population/western-sahara-population/" xr:uid="{4037BD78-B87B-417C-BA21-C372F92DDCDA}"/>
-    <hyperlink ref="B217" r:id="rId421" display="https://www.worldometers.info/coronavirus/country/anguilla/" xr:uid="{656EC29D-25AE-4356-9AB5-BA3E49EB5BDB}"/>
-    <hyperlink ref="N217" r:id="rId422" display="https://www.worldometers.info/world-population/anguilla-population/" xr:uid="{2B13AB98-56F4-44B7-AC2D-B1729834F61D}"/>
+    <hyperlink ref="N217" r:id="rId1" display="https://www.worldometers.info/world-population/anguilla-population/" xr:uid="{2B13AB98-56F4-44B7-AC2D-B1729834F61D}"/>
+    <hyperlink ref="B217" r:id="rId2" display="https://www.worldometers.info/coronavirus/country/anguilla/" xr:uid="{656EC29D-25AE-4356-9AB5-BA3E49EB5BDB}"/>
+    <hyperlink ref="N215" r:id="rId3" display="https://www.worldometers.info/world-population/western-sahara-population/" xr:uid="{4037BD78-B87B-417C-BA21-C372F92DDCDA}"/>
+    <hyperlink ref="B215" r:id="rId4" display="https://www.worldometers.info/coronavirus/country/western-sahara/" xr:uid="{CAD0218D-C207-47DC-B01A-44FBB0C32AB9}"/>
+    <hyperlink ref="N214" r:id="rId5" display="https://www.worldometers.info/world-population/holy-see-population/" xr:uid="{A7DFD9C1-2296-4008-B539-4C41D79A82FF}"/>
+    <hyperlink ref="B214" r:id="rId6" display="https://www.worldometers.info/coronavirus/country/holy-see/" xr:uid="{A58A3366-1B51-4212-9BE0-DE5D96AC8D53}"/>
+    <hyperlink ref="N213" r:id="rId7" display="https://www.worldometers.info/world-population/falkland-islands-malvinas-population/" xr:uid="{1F1D0429-5C12-4923-A169-20F195CC3D41}"/>
+    <hyperlink ref="B213" r:id="rId8" display="https://www.worldometers.info/coronavirus/country/falkland-islands-malvinas/" xr:uid="{C1ED97D6-35FC-43CC-BA53-5465A51C2201}"/>
+    <hyperlink ref="N212" r:id="rId9" display="https://www.worldometers.info/world-population/montserrat-population/" xr:uid="{8E615AD8-71B2-47FA-B959-547BBD513B1C}"/>
+    <hyperlink ref="B212" r:id="rId10" display="https://www.worldometers.info/coronavirus/country/montserrat/" xr:uid="{9AF2B861-AFC3-48CA-85AC-FE7283B9E489}"/>
+    <hyperlink ref="N211" r:id="rId11" display="https://www.worldometers.info/world-population/greenland-population/" xr:uid="{80172D3C-22F9-41E5-8F0C-1D35ACCB0511}"/>
+    <hyperlink ref="B211" r:id="rId12" display="https://www.worldometers.info/coronavirus/country/greenland/" xr:uid="{2E39E2DA-5FD1-47B5-8800-1F26DA2080A5}"/>
+    <hyperlink ref="N210" r:id="rId13" display="https://www.worldometers.info/world-population/saint-pierre-and-miquelon-population/" xr:uid="{73CD44BE-F1C0-4CF6-B6C4-F0CDB9AFD414}"/>
+    <hyperlink ref="B210" r:id="rId14" display="https://www.worldometers.info/coronavirus/country/saint-pierre-and-miquelon/" xr:uid="{D7D30615-8930-4FC9-B612-8C579583AC17}"/>
+    <hyperlink ref="N209" r:id="rId15" display="https://www.worldometers.info/world-population/saint-kitts-and-nevis-population/" xr:uid="{D2D741D7-A7CC-4770-9CE4-504C3953E9BD}"/>
+    <hyperlink ref="B209" r:id="rId16" display="https://www.worldometers.info/coronavirus/country/saint-kitts-and-nevis/" xr:uid="{02293070-3264-4CDF-AC80-70E2F64C4EBE}"/>
+    <hyperlink ref="N208" r:id="rId17" display="https://www.worldometers.info/world-population/laos-population/" xr:uid="{94DA87F8-F791-4383-89FF-F0C85DEABF28}"/>
+    <hyperlink ref="B208" r:id="rId18" display="https://www.worldometers.info/coronavirus/country/laos/" xr:uid="{1B1B5082-1E8B-4825-96BD-7C3108869DDE}"/>
+    <hyperlink ref="N207" r:id="rId19" display="https://www.worldometers.info/world-population/grenada-population/" xr:uid="{02356E06-A3CC-4CB4-B66B-EC23B184F1F5}"/>
+    <hyperlink ref="B207" r:id="rId20" display="https://www.worldometers.info/coronavirus/country/grenada/" xr:uid="{46F4B330-9695-45FB-96D3-966C514EEE18}"/>
+    <hyperlink ref="N206" r:id="rId21" display="https://www.worldometers.info/world-population/timor-leste-population/" xr:uid="{462B5041-42EC-4F8E-BE22-75EE8CD611CB}"/>
+    <hyperlink ref="B206" r:id="rId22" display="https://www.worldometers.info/coronavirus/country/timor-leste/" xr:uid="{F4677C6A-09F7-4D30-9A87-D0D9909CB29C}"/>
+    <hyperlink ref="N205" r:id="rId23" display="https://www.worldometers.info/world-population/saint-lucia-population/" xr:uid="{20C648C7-C801-4E44-B6BA-EEAA94301F7E}"/>
+    <hyperlink ref="B205" r:id="rId24" display="https://www.worldometers.info/coronavirus/country/saint-lucia/" xr:uid="{17F8A774-148B-4980-A436-5553C4E6C968}"/>
+    <hyperlink ref="N204" r:id="rId25" display="https://www.worldometers.info/world-population/new-caledonia-population/" xr:uid="{1CF27D73-726D-49BD-A44B-D2BC72C88ED5}"/>
+    <hyperlink ref="B204" r:id="rId26" display="https://www.worldometers.info/coronavirus/country/new-caledonia/" xr:uid="{8B4F4E43-FC8D-4204-A264-DDC78D8D118F}"/>
+    <hyperlink ref="N203" r:id="rId27" display="https://www.worldometers.info/world-population/dominica-population/" xr:uid="{6714517B-FB92-4DED-9BE2-75730A0CCE6E}"/>
+    <hyperlink ref="B203" r:id="rId28" display="https://www.worldometers.info/coronavirus/country/dominica/" xr:uid="{E69DFBA2-133B-40C1-9865-7BCED3C8DB42}"/>
+    <hyperlink ref="N202" r:id="rId29" display="https://www.worldometers.info/world-population/fiji-population/" xr:uid="{BB4249EE-C9EE-4FAC-AC7E-73295329BDD0}"/>
+    <hyperlink ref="B202" r:id="rId30" display="https://www.worldometers.info/coronavirus/country/fiji/" xr:uid="{99420411-B2BB-4245-B72D-4E8B9972401E}"/>
+    <hyperlink ref="N201" r:id="rId31" display="https://www.worldometers.info/world-population/china-macao-sar-population/" xr:uid="{A6B76BC8-AD9B-42D2-BBE0-F4A50DF922B3}"/>
+    <hyperlink ref="B201" r:id="rId32" display="https://www.worldometers.info/coronavirus/country/china-macao-sar/" xr:uid="{9E084458-8774-48D3-AEAC-A3DDF3873E83}"/>
+    <hyperlink ref="N200" r:id="rId33" display="https://www.worldometers.info/world-population/saint-barthelemy-population/" xr:uid="{154AE0EB-6D04-4D89-AF61-76B9A94BDAFF}"/>
+    <hyperlink ref="B200" r:id="rId34" display="https://www.worldometers.info/coronavirus/country/saint-barthelemy/" xr:uid="{865556EF-5300-4182-9481-256E37FB3718}"/>
+    <hyperlink ref="N199" r:id="rId35" display="https://www.worldometers.info/world-population/saint-vincent-and-the-grenadines-population/" xr:uid="{4D92E970-32BA-401F-B965-3F04BC9C01B0}"/>
+    <hyperlink ref="B199" r:id="rId36" display="https://www.worldometers.info/coronavirus/country/saint-vincent-and-the-grenadines/" xr:uid="{7CE3635B-7E5C-4642-BA34-8BE9538BAB03}"/>
+    <hyperlink ref="N198" r:id="rId37" display="https://www.worldometers.info/world-population/british-virgin-islands-population/" xr:uid="{086B6600-D960-4E2B-B2DC-E9A3DEAE3CCF}"/>
+    <hyperlink ref="B198" r:id="rId38" display="https://www.worldometers.info/coronavirus/country/british-virgin-islands/" xr:uid="{3B659731-33B6-484E-8826-36181E495D30}"/>
+    <hyperlink ref="N197" r:id="rId39" display="https://www.worldometers.info/world-population/caribbean-netherlands-population/" xr:uid="{4962F9DE-0535-41A7-8D7F-36BF4889BC6A}"/>
+    <hyperlink ref="B197" r:id="rId40" display="https://www.worldometers.info/coronavirus/country/caribbean-netherlands/" xr:uid="{AE2E0ECE-F53F-4D81-A8F8-894FF53F6D51}"/>
+    <hyperlink ref="N196" r:id="rId41" display="https://www.worldometers.info/world-population/antigua-and-barbuda-population/" xr:uid="{DEDA529C-541B-4B35-B1B5-8BEF82D2D2ED}"/>
+    <hyperlink ref="B196" r:id="rId42" display="https://www.worldometers.info/coronavirus/country/antigua-and-barbuda/" xr:uid="{0F2676CA-AF19-402F-A0E3-4C76A577BCBD}"/>
+    <hyperlink ref="N195" r:id="rId43" display="https://www.worldometers.info/world-population/liechtenstein-population/" xr:uid="{D43BD384-0604-4043-A03A-B6B3E284C1B8}"/>
+    <hyperlink ref="B195" r:id="rId44" display="https://www.worldometers.info/coronavirus/country/liechtenstein/" xr:uid="{BD131F64-CD02-4BD0-AFD7-25ADD72B7077}"/>
+    <hyperlink ref="N194" r:id="rId45" display="https://www.worldometers.info/world-population/seychelles-population/" xr:uid="{D593802E-8991-4672-85A7-5C106185A65A}"/>
+    <hyperlink ref="B194" r:id="rId46" display="https://www.worldometers.info/coronavirus/country/seychelles/" xr:uid="{C97103E4-FF34-4FE9-A1C8-514760D18411}"/>
+    <hyperlink ref="N193" r:id="rId47" display="https://www.worldometers.info/world-population/brunei-darussalam-population/" xr:uid="{6D7E5A4B-5771-4ADB-A720-A2404093FB2B}"/>
+    <hyperlink ref="B193" r:id="rId48" display="https://www.worldometers.info/coronavirus/country/brunei-darussalam/" xr:uid="{F6EC0F34-7E72-466C-9225-9DCDE12F065E}"/>
+    <hyperlink ref="N192" r:id="rId49" display="https://www.worldometers.info/world-population/bermuda-population/" xr:uid="{5A24E3F7-747B-4F00-B729-66B14CFCFE4D}"/>
+    <hyperlink ref="B192" r:id="rId50" display="https://www.worldometers.info/coronavirus/country/bermuda/" xr:uid="{ED581D62-DACE-4BF1-95E5-F16D451019ED}"/>
+    <hyperlink ref="N191" r:id="rId51" display="https://www.worldometers.info/world-population/barbados-population/" xr:uid="{CF8EA112-906D-4A6A-B783-893E4987DF88}"/>
+    <hyperlink ref="B191" r:id="rId52" display="https://www.worldometers.info/coronavirus/country/barbados/" xr:uid="{84D9DEB4-2575-48F7-8053-6CA47E026F2A}"/>
+    <hyperlink ref="N190" r:id="rId53" display="https://www.worldometers.info/world-population/cayman-islands-population/" xr:uid="{A9FFA719-DA02-4474-8612-78B0EED8EF7C}"/>
+    <hyperlink ref="B190" r:id="rId54" display="https://www.worldometers.info/coronavirus/country/cayman-islands/" xr:uid="{3A5A5DB3-B498-4BBC-918F-C46D551277C1}"/>
+    <hyperlink ref="N189" r:id="rId55" display="https://www.worldometers.info/world-population/monaco-population/" xr:uid="{F2B8EDA3-9767-461D-85FA-92AEF7C2D87F}"/>
+    <hyperlink ref="B189" r:id="rId56" display="https://www.worldometers.info/coronavirus/country/monaco/" xr:uid="{CA77739C-2B0C-4DBC-85B7-B1EF905E3F2D}"/>
+    <hyperlink ref="N188" r:id="rId57" display="https://www.worldometers.info/world-population/cambodia-population/" xr:uid="{384BD8CB-02AE-4185-AE79-BF7872E15DCD}"/>
+    <hyperlink ref="B188" r:id="rId58" display="https://www.worldometers.info/coronavirus/country/cambodia/" xr:uid="{93D3A60C-85EC-4BB6-8EAD-0283007ACFBC}"/>
+    <hyperlink ref="N187" r:id="rId59" display="https://www.worldometers.info/world-population/bhutan-population/" xr:uid="{AA4DAA41-54DD-4C0D-B929-BEC3BBCA6E5C}"/>
+    <hyperlink ref="B187" r:id="rId60" display="https://www.worldometers.info/coronavirus/country/bhutan/" xr:uid="{F84F9ABB-E600-404F-BA97-610C5D8994E5}"/>
+    <hyperlink ref="N186" r:id="rId61" display="https://www.worldometers.info/world-population/mongolia-population/" xr:uid="{DF738FDC-1E83-4E77-B997-9FE9D57C4620}"/>
+    <hyperlink ref="B186" r:id="rId62" display="https://www.worldometers.info/coronavirus/country/mongolia/" xr:uid="{BBF04B6B-6193-49CC-B909-29000BCB8394}"/>
+    <hyperlink ref="N185" r:id="rId63" display="https://www.worldometers.info/world-population/isle-of-man-population/" xr:uid="{842FF454-B12B-4E8F-B7EB-FA581C080E0F}"/>
+    <hyperlink ref="B185" r:id="rId64" display="https://www.worldometers.info/coronavirus/country/isle-of-man/" xr:uid="{5252D9B5-CFAF-46D4-A655-C85E253D7EB2}"/>
+    <hyperlink ref="N184" r:id="rId65" display="https://www.worldometers.info/world-population/curacao-population/" xr:uid="{821B2A53-D4F1-4742-BB5F-B6F0952D1850}"/>
+    <hyperlink ref="B184" r:id="rId66" display="https://www.worldometers.info/coronavirus/country/curacao/" xr:uid="{B8E30E00-A510-4CEC-815E-ABB52FFC1ED2}"/>
+    <hyperlink ref="N183" r:id="rId67" display="https://www.worldometers.info/world-population/mauritius-population/" xr:uid="{12B8B45E-AAC2-4787-A55C-70084D72F748}"/>
+    <hyperlink ref="B183" r:id="rId68" display="https://www.worldometers.info/coronavirus/country/mauritius/" xr:uid="{BECEC645-142D-4E53-B942-41B13DF202EE}"/>
+    <hyperlink ref="N182" r:id="rId69" display="https://www.worldometers.info/world-population/eritrea-population/" xr:uid="{790CC8F5-56FD-4927-9E1D-2D6B0908D20E}"/>
+    <hyperlink ref="B182" r:id="rId70" display="https://www.worldometers.info/coronavirus/country/eritrea/" xr:uid="{D856DEF4-E10B-41AB-8A62-43AE15D9B67F}"/>
+    <hyperlink ref="N181" r:id="rId71" display="https://www.worldometers.info/world-population/saint-martin-population/" xr:uid="{B443BFCE-1A0A-482D-B140-49C16375F856}"/>
+    <hyperlink ref="B181" r:id="rId72" display="https://www.worldometers.info/coronavirus/country/saint-martin/" xr:uid="{937FF53B-6B4D-442F-B751-D7930161B8ED}"/>
+    <hyperlink ref="N180" r:id="rId73" display="https://www.worldometers.info/world-population/gibraltar-population/" xr:uid="{75118EF0-0650-4C35-9F59-BDC4C16527F2}"/>
+    <hyperlink ref="B180" r:id="rId74" display="https://www.worldometers.info/coronavirus/country/gibraltar/" xr:uid="{C4E85AC4-F802-4D66-913C-C684D05BAA9D}"/>
+    <hyperlink ref="N179" r:id="rId75" display="https://www.worldometers.info/world-population/faeroe-islands-population/" xr:uid="{71B2EABF-EEF8-4C72-83CB-D3D52979BE5A}"/>
+    <hyperlink ref="B179" r:id="rId76" display="https://www.worldometers.info/coronavirus/country/faeroe-islands/" xr:uid="{5866CA93-AA9E-418C-88BF-17E0BBF0A471}"/>
+    <hyperlink ref="N178" r:id="rId77" display="https://www.worldometers.info/world-population/comoros-population/" xr:uid="{A8DC86EB-B345-4C0D-880F-CEC9531EC163}"/>
+    <hyperlink ref="B178" r:id="rId78" display="https://www.worldometers.info/coronavirus/country/comoros/" xr:uid="{029B2052-13C0-4B47-84CC-0C93BFBEFBA2}"/>
+    <hyperlink ref="N177" r:id="rId79" display="https://www.worldometers.info/world-population/burundi-population/" xr:uid="{BB97A78F-5ED2-47AB-9F18-80019DA5AF0B}"/>
+    <hyperlink ref="B177" r:id="rId80" display="https://www.worldometers.info/coronavirus/country/burundi/" xr:uid="{1D52C518-8EE9-417E-8854-106A73A7CA7A}"/>
+    <hyperlink ref="N176" r:id="rId81" display="https://www.worldometers.info/world-population/tanzania-population/" xr:uid="{60018510-8DB4-475D-8A51-F01254BDCD57}"/>
+    <hyperlink ref="B176" r:id="rId82" display="https://www.worldometers.info/coronavirus/country/tanzania/" xr:uid="{3F04EC44-3AAD-4FC6-B193-A6020A421C19}"/>
+    <hyperlink ref="N175" r:id="rId83" display="https://www.worldometers.info/world-population/taiwan-population/" xr:uid="{CF517E4E-FE7B-45C7-A6C7-C700766362B0}"/>
+    <hyperlink ref="B175" r:id="rId84" display="https://www.worldometers.info/coronavirus/country/taiwan/" xr:uid="{840B2098-CFDB-495F-9E66-AA1654F3ACB1}"/>
+    <hyperlink ref="N174" r:id="rId85" display="https://www.worldometers.info/world-population/papua-new-guinea-population/" xr:uid="{E5096E24-A6D8-473C-A08E-9F6B5F39F88E}"/>
+    <hyperlink ref="B174" r:id="rId86" display="https://www.worldometers.info/coronavirus/country/papua-new-guinea/" xr:uid="{F139132D-91A0-4464-8EF4-3E8360C69706}"/>
+    <hyperlink ref="N173" r:id="rId87" display="https://www.worldometers.info/world-population/sint-maarten-population/" xr:uid="{76EE9F5B-E536-439D-A509-223841A5C766}"/>
+    <hyperlink ref="B173" r:id="rId88" display="https://www.worldometers.info/coronavirus/country/sint-maarten/" xr:uid="{996B2176-FBE8-4927-96CF-B1FE522FC444}"/>
+    <hyperlink ref="N172" r:id="rId89" display="https://www.worldometers.info/world-population/channel-islands-population/" xr:uid="{BB25295D-476A-4A75-9131-2FB26AD15801}"/>
+    <hyperlink ref="B172" r:id="rId90" display="https://www.worldometers.info/coronavirus/country/channel-islands/" xr:uid="{D97DD19B-6C20-483D-9F76-CD9ED160F5CA}"/>
+    <hyperlink ref="N171" r:id="rId91" display="https://www.worldometers.info/world-population/turks-and-caicos-islands-population/" xr:uid="{4D764E43-E369-4BF0-B7E0-88981C0B1455}"/>
+    <hyperlink ref="B171" r:id="rId92" display="https://www.worldometers.info/coronavirus/country/turks-and-caicos-islands/" xr:uid="{3FF202CC-F4A7-4B88-9B81-1644BA9EF4AA}"/>
+    <hyperlink ref="N169" r:id="rId93" display="https://www.worldometers.info/world-population/san-marino-population/" xr:uid="{74A4480A-8DFA-4A62-A7EB-6D1BF044436C}"/>
+    <hyperlink ref="B169" r:id="rId94" display="https://www.worldometers.info/coronavirus/country/san-marino/" xr:uid="{46A8390E-6929-4EFA-9B8B-A3AA9715BF16}"/>
+    <hyperlink ref="N168" r:id="rId95" display="https://www.worldometers.info/world-population/sao-tome-and-principe-population/" xr:uid="{1553B22B-27A6-4F5F-AB5E-DB74AA2D6F9D}"/>
+    <hyperlink ref="B168" r:id="rId96" display="https://www.worldometers.info/coronavirus/country/sao-tome-and-principe/" xr:uid="{6D9BB1F8-0B65-4C84-B37E-3938D42E9831}"/>
+    <hyperlink ref="N167" r:id="rId97" display="https://www.worldometers.info/world-population/viet-nam-population/" xr:uid="{1C81A464-F7BB-48E3-8795-00E1110E9CE3}"/>
+    <hyperlink ref="B167" r:id="rId98" display="https://www.worldometers.info/coronavirus/country/viet-nam/" xr:uid="{C3705424-38F0-49DD-B565-6008C2ABC020}"/>
+    <hyperlink ref="N166" r:id="rId99" display="https://www.worldometers.info/world-population/chad-population/" xr:uid="{BA4FF892-3339-4E52-82F9-CCDE09C3F209}"/>
+    <hyperlink ref="B166" r:id="rId100" display="https://www.worldometers.info/coronavirus/country/chad/" xr:uid="{94F7D6BC-B0B3-43BC-9B43-AE57DBE683D9}"/>
+    <hyperlink ref="N165" r:id="rId101" display="https://www.worldometers.info/world-population/niger-population/" xr:uid="{39884D9F-D5DB-4AB3-B3CF-DCABFBF2B8A6}"/>
+    <hyperlink ref="B165" r:id="rId102" display="https://www.worldometers.info/coronavirus/country/niger/" xr:uid="{AC97CBEF-5F21-43D5-AECD-D39F388FDBC6}"/>
+    <hyperlink ref="N164" r:id="rId103" display="https://www.worldometers.info/world-population/martinique-population/" xr:uid="{54893C3A-C3FF-4E3F-8961-1959F2BCB9AF}"/>
+    <hyperlink ref="B164" r:id="rId104" display="https://www.worldometers.info/coronavirus/country/martinique/" xr:uid="{9D342AC4-8AA7-4F67-B2CF-B8521A7A5F03}"/>
+    <hyperlink ref="N163" r:id="rId105" display="https://www.worldometers.info/world-population/liberia-population/" xr:uid="{DD86468E-3E5B-4166-932F-D3A1D363BC89}"/>
+    <hyperlink ref="B163" r:id="rId106" display="https://www.worldometers.info/coronavirus/country/liberia/" xr:uid="{F3CA5754-B9E7-406E-9D30-7712400E2E88}"/>
+    <hyperlink ref="N162" r:id="rId107" display="https://www.worldometers.info/world-population/lesotho-population/" xr:uid="{D9078055-1834-4457-9CD0-5C01B76C3110}"/>
+    <hyperlink ref="B162" r:id="rId108" display="https://www.worldometers.info/coronavirus/country/lesotho/" xr:uid="{D66CC1BB-E131-4C72-B0FA-41B49C4E0756}"/>
+    <hyperlink ref="N161" r:id="rId109" display="https://www.worldometers.info/world-population/french-polynesia-population/" xr:uid="{B4F61AD3-C695-4A5C-B582-A4FB28F4A0B7}"/>
+    <hyperlink ref="B161" r:id="rId110" display="https://www.worldometers.info/coronavirus/country/french-polynesia/" xr:uid="{6ECA39F3-EBDD-4564-BFCC-D524F2B81D08}"/>
+    <hyperlink ref="N160" r:id="rId111" display="https://www.worldometers.info/world-population/cyprus-population/" xr:uid="{89B27F03-67EA-4C41-8858-DE2C9C3ACAC2}"/>
+    <hyperlink ref="B160" r:id="rId112" display="https://www.worldometers.info/coronavirus/country/cyprus/" xr:uid="{D1A3B7FB-0940-410E-923A-9431C4921ADE}"/>
+    <hyperlink ref="N159" r:id="rId113" display="https://www.worldometers.info/world-population/latvia-population/" xr:uid="{B49B8E94-8245-494B-BE03-5ED45DF6E5A3}"/>
+    <hyperlink ref="B159" r:id="rId114" display="https://www.worldometers.info/coronavirus/country/latvia/" xr:uid="{0E26EC9A-B88B-4750-A8DB-47DBFAE3B86F}"/>
+    <hyperlink ref="N158" r:id="rId115" display="https://www.worldometers.info/world-population/togo-population/" xr:uid="{3B0EF1C1-073A-4244-A250-1F423ABF3A15}"/>
+    <hyperlink ref="B158" r:id="rId116" display="https://www.worldometers.info/coronavirus/country/togo/" xr:uid="{7446DBDB-7A0A-4FCD-ACAC-1F38BC1BF831}"/>
+    <hyperlink ref="B157" r:id="rId117" display="https://www.worldometers.info/coronavirus/country/new-zealand/" xr:uid="{D3DF3F40-92BA-4BF2-9012-CF80FBEAD25E}"/>
+    <hyperlink ref="N156" r:id="rId118" display="https://www.worldometers.info/world-population/belize-population/" xr:uid="{99EDEFBC-F4E0-451A-84F0-494F43A35BAD}"/>
+    <hyperlink ref="B156" r:id="rId119" display="https://www.worldometers.info/coronavirus/country/belize/" xr:uid="{B5E0BDD5-6A75-411F-A2B7-E1CEDD82897B}"/>
+    <hyperlink ref="N155" r:id="rId120" display="https://www.worldometers.info/world-population/andorra-population/" xr:uid="{5E39DF9B-D30C-4A3E-A3F9-7118599D2167}"/>
+    <hyperlink ref="B155" r:id="rId121" display="https://www.worldometers.info/coronavirus/country/andorra/" xr:uid="{FAD93770-42B0-46F3-A083-E4555D4319D8}"/>
+    <hyperlink ref="N154" r:id="rId122" display="https://www.worldometers.info/world-population/uruguay-population/" xr:uid="{38BBEC3F-922E-4713-9202-BE395AE2EDB4}"/>
+    <hyperlink ref="B154" r:id="rId123" display="https://www.worldometers.info/coronavirus/country/uruguay/" xr:uid="{815B0E84-A586-4292-8909-8BDBA988BF10}"/>
+    <hyperlink ref="N153" r:id="rId124" display="https://www.worldometers.info/world-population/burkina-faso-population/" xr:uid="{8A845CCD-3841-4E8D-8229-1F1BBAD2CCF8}"/>
+    <hyperlink ref="B153" r:id="rId125" display="https://www.worldometers.info/coronavirus/country/burkina-faso/" xr:uid="{338A4B92-6ACE-40BD-81EB-8605D0896D26}"/>
+    <hyperlink ref="N152" r:id="rId126" display="https://www.worldometers.info/world-population/yemen-population/" xr:uid="{5D66BCE5-EEF3-48BD-8B5B-E9AF6EAFC79B}"/>
+    <hyperlink ref="B152" r:id="rId127" display="https://www.worldometers.info/coronavirus/country/yemen/" xr:uid="{30044166-511C-4B7E-A260-4A63132EF3B9}"/>
+    <hyperlink ref="N151" r:id="rId128" display="https://www.worldometers.info/world-population/sierra-leone-population/" xr:uid="{FBF10C2B-05EC-4201-A74D-592C4F65EE48}"/>
+    <hyperlink ref="B151" r:id="rId129" display="https://www.worldometers.info/coronavirus/country/sierra-leone/" xr:uid="{BE9221E9-0F2A-4CE0-A1E7-CFBD2C371268}"/>
+    <hyperlink ref="N150" r:id="rId130" display="https://www.worldometers.info/world-population/guinea-bissau-population/" xr:uid="{9F87C009-64C5-4B29-8FE5-D9B46FEF33A4}"/>
+    <hyperlink ref="B150" r:id="rId131" display="https://www.worldometers.info/coronavirus/country/guinea-bissau/" xr:uid="{E92AA734-1A13-4077-BB8D-D886637CE534}"/>
+    <hyperlink ref="N149" r:id="rId132" display="https://www.worldometers.info/world-population/benin-population/" xr:uid="{3F7456BD-818F-4944-8B7D-730BF60FB49E}"/>
+    <hyperlink ref="B149" r:id="rId133" display="https://www.worldometers.info/coronavirus/country/benin/" xr:uid="{ECE4B3F2-E8E5-45A2-80D0-CAA1DD202C22}"/>
+    <hyperlink ref="N148" r:id="rId134" display="https://www.worldometers.info/world-population/iceland-population/" xr:uid="{11FF645B-E0F2-4B23-BBF7-540CF5AC7BBA}"/>
+    <hyperlink ref="B148" r:id="rId135" display="https://www.worldometers.info/coronavirus/country/iceland/" xr:uid="{A266DA45-50B2-4508-B9D7-EFE06C8914D1}"/>
+    <hyperlink ref="N147" r:id="rId136" display="https://www.worldometers.info/world-population/south-sudan-population/" xr:uid="{EBE0EA9E-A6C3-456C-8D55-7CBDA7655346}"/>
+    <hyperlink ref="B147" r:id="rId137" display="https://www.worldometers.info/coronavirus/country/south-sudan/" xr:uid="{DA85D3FE-2AE3-4647-8E77-5E308134F91B}"/>
+    <hyperlink ref="N146" r:id="rId138" display="https://www.worldometers.info/world-population/guyana-population/" xr:uid="{BF48F79E-7C2E-4B53-BCF5-9E9B9D6D2F51}"/>
+    <hyperlink ref="B146" r:id="rId139" display="https://www.worldometers.info/coronavirus/country/guyana/" xr:uid="{A9062EFF-0A03-4010-BF36-EA6138DD9827}"/>
+    <hyperlink ref="N145" r:id="rId140" display="https://www.worldometers.info/world-population/malta-population/" xr:uid="{BC1BB3AC-412D-468D-804F-C2E4792451FC}"/>
+    <hyperlink ref="B145" r:id="rId141" display="https://www.worldometers.info/coronavirus/country/malta/" xr:uid="{240EB7E9-F3A8-426A-A86B-753A99372D3A}"/>
+    <hyperlink ref="N144" r:id="rId142" display="https://www.worldometers.info/world-population/mali-population/" xr:uid="{BFA1239E-C0FC-456D-844C-2564D611CF20}"/>
+    <hyperlink ref="B144" r:id="rId143" display="https://www.worldometers.info/coronavirus/country/mali/" xr:uid="{98430BED-9DA9-4A3E-BE73-314D900C22B0}"/>
+    <hyperlink ref="N143" r:id="rId144" display="https://www.worldometers.info/world-population/botswana-population/" xr:uid="{C7E58F8B-A048-44F1-AF18-243C94CDE6C9}"/>
+    <hyperlink ref="B143" r:id="rId145" display="https://www.worldometers.info/coronavirus/country/botswana/" xr:uid="{7F7E9715-8EFA-4BFE-93BF-0758B69F75DB}"/>
+    <hyperlink ref="N142" r:id="rId146" display="https://www.worldometers.info/world-population/estonia-population/" xr:uid="{541450DF-04AA-4D74-8DF2-E31FF55D9963}"/>
+    <hyperlink ref="B142" r:id="rId147" display="https://www.worldometers.info/coronavirus/country/estonia/" xr:uid="{7CE23593-254C-4FC7-A923-91F10D579016}"/>
+    <hyperlink ref="N141" r:id="rId148" display="https://www.worldometers.info/world-population/sri-lanka-population/" xr:uid="{B10A1D44-2BAB-46AD-9904-0D8CEB998094}"/>
+    <hyperlink ref="B141" r:id="rId149" display="https://www.worldometers.info/coronavirus/country/sri-lanka/" xr:uid="{FDF76097-0C19-4696-9239-D5B00673B276}"/>
+    <hyperlink ref="N140" r:id="rId150" display="https://www.worldometers.info/world-population/mayotte-population/" xr:uid="{99EF7269-128D-4096-9F63-8A5B31DFF59D}"/>
+    <hyperlink ref="B140" r:id="rId151" display="https://www.worldometers.info/coronavirus/country/mayotte/" xr:uid="{F2735ECB-C827-4F5D-8F95-2B2C9EF67C3F}"/>
+    <hyperlink ref="N139" r:id="rId152" display="https://www.worldometers.info/world-population/thailand-population/" xr:uid="{343A35F8-A7C3-4A56-8F1D-CC656EBF85A4}"/>
+    <hyperlink ref="B139" r:id="rId153" display="https://www.worldometers.info/coronavirus/country/thailand/" xr:uid="{7EF3AB1D-45AD-44DD-89B3-2A2494188EC5}"/>
+    <hyperlink ref="N138" r:id="rId154" display="https://www.worldometers.info/world-population/gambia-population/" xr:uid="{8EE9A219-6187-4DD1-86A2-176DB7CE3853}"/>
+    <hyperlink ref="B138" r:id="rId155" display="https://www.worldometers.info/coronavirus/country/gambia/" xr:uid="{9C02A33B-37E1-4C7A-9217-AB47EEB1BEB5}"/>
+    <hyperlink ref="N137" r:id="rId156" display="https://www.worldometers.info/world-population/somalia-population/" xr:uid="{EAD8863F-3CCE-470C-9D75-F55DE2F700B5}"/>
+    <hyperlink ref="B137" r:id="rId157" display="https://www.worldometers.info/coronavirus/country/somalia/" xr:uid="{E1F3668B-630C-4928-A0C8-157C05428683}"/>
+    <hyperlink ref="N136" r:id="rId158" display="https://www.worldometers.info/world-population/bahamas-population/" xr:uid="{BDD4E62B-8D32-4A4C-A404-830B1B7B505F}"/>
+    <hyperlink ref="B136" r:id="rId159" display="https://www.worldometers.info/coronavirus/country/bahamas/" xr:uid="{560F9150-8BE0-4D78-8D2A-3DFBDA38EBBF}"/>
+    <hyperlink ref="N135" r:id="rId160" display="https://www.worldometers.info/world-population/aruba-population/" xr:uid="{681BFB14-CAC3-4F08-86A8-BF4F6F30B97A}"/>
+    <hyperlink ref="B135" r:id="rId161" display="https://www.worldometers.info/coronavirus/country/aruba/" xr:uid="{B7BD6A8E-17A8-474C-9FE4-A698367C457E}"/>
+    <hyperlink ref="N134" r:id="rId162" display="https://www.worldometers.info/world-population/reunion-population/" xr:uid="{904FE805-B73A-4CA6-A1ED-3121E07D4E0B}"/>
+    <hyperlink ref="B134" r:id="rId163" display="https://www.worldometers.info/coronavirus/country/reunion/" xr:uid="{2B077D74-F60D-4034-8E3D-1EE2B1EFBCFC}"/>
+    <hyperlink ref="N133" r:id="rId164" display="https://www.worldometers.info/world-population/syria-population/" xr:uid="{7D3AAC81-2145-479D-907C-1B20C2A6CA43}"/>
+    <hyperlink ref="B133" r:id="rId165" display="https://www.worldometers.info/coronavirus/country/syria/" xr:uid="{BBCDDADA-59C3-425A-81C4-DEBD5E875908}"/>
+    <hyperlink ref="N132" r:id="rId166" display="https://www.worldometers.info/world-population/trinidad-and-tobago-population/" xr:uid="{FCAAC53C-2B8D-450A-9FCF-1F0A08CD155D}"/>
+    <hyperlink ref="B132" r:id="rId167" display="https://www.worldometers.info/coronavirus/country/trinidad-and-tobago/" xr:uid="{0C7D70DB-21B5-4F04-A204-20FBF3DCFC3A}"/>
+    <hyperlink ref="N131" r:id="rId168" display="https://www.worldometers.info/world-population/guadeloupe-population/" xr:uid="{5591D2D2-F29B-49A9-845D-F497E10EEFED}"/>
+    <hyperlink ref="B131" r:id="rId169" display="https://www.worldometers.info/coronavirus/country/guadeloupe/" xr:uid="{683FBE84-8D75-4C1F-ABE0-5D6FCC75D81B}"/>
+    <hyperlink ref="N130" r:id="rId170" display="https://www.worldometers.info/world-population/lithuania-population/" xr:uid="{8E37A561-8F36-4B53-A187-32B53F1178A4}"/>
+    <hyperlink ref="B130" r:id="rId171" display="https://www.worldometers.info/coronavirus/country/lithuania/" xr:uid="{6BCE31FA-676E-46C5-891C-020B9A7C5F86}"/>
+    <hyperlink ref="N129" r:id="rId172" display="https://www.worldometers.info/world-population/angola-population/" xr:uid="{0189EF68-5346-4FFE-9BDE-408FB070D04B}"/>
+    <hyperlink ref="B129" r:id="rId173" display="https://www.worldometers.info/coronavirus/country/angola/" xr:uid="{EFF3EBCE-4633-466F-8133-84EC20BE421A}"/>
+    <hyperlink ref="N128" r:id="rId174" display="https://www.worldometers.info/world-population/central-african-republic-population/" xr:uid="{AC2BDD49-3AD9-4876-B9C2-34BAFA5B3540}"/>
+    <hyperlink ref="B128" r:id="rId175" display="https://www.worldometers.info/coronavirus/country/central-african-republic/" xr:uid="{4E2EB1D2-F42A-4C32-898F-2DF28D71F5B4}"/>
+    <hyperlink ref="N127" r:id="rId176" display="https://www.worldometers.info/world-population/rwanda-population/" xr:uid="{3BF3622E-7B17-420E-A25D-711DD936AD5A}"/>
+    <hyperlink ref="B127" r:id="rId177" display="https://www.worldometers.info/coronavirus/country/rwanda/" xr:uid="{4B69ED25-78E0-49F6-8413-ADB6B017C421}"/>
+    <hyperlink ref="N126" r:id="rId178" display="https://www.worldometers.info/world-population/suriname-population/" xr:uid="{4DB8E41D-A95B-4B60-A5F5-5D736B238E9D}"/>
+    <hyperlink ref="B126" r:id="rId179" display="https://www.worldometers.info/coronavirus/country/suriname/" xr:uid="{02C77410-9251-45FC-A928-9EE5C62B60D5}"/>
+    <hyperlink ref="N125" r:id="rId180" display="https://www.worldometers.info/world-population/congo-population/" xr:uid="{8E819119-9459-4ABB-8125-1AAB085DD672}"/>
+    <hyperlink ref="B125" r:id="rId181" display="https://www.worldometers.info/coronavirus/country/congo/" xr:uid="{743FD756-283A-4D85-B249-075E748F2F8D}"/>
+    <hyperlink ref="N124" r:id="rId182" display="https://www.worldometers.info/world-population/equatorial-guinea-population/" xr:uid="{9343ACCF-DF52-4FB1-A876-A4F90598F6BE}"/>
+    <hyperlink ref="B124" r:id="rId183" display="https://www.worldometers.info/coronavirus/country/equatorial-guinea/" xr:uid="{16557784-5A45-4218-B200-0F5DB3257F71}"/>
+    <hyperlink ref="N123" r:id="rId184" display="https://www.worldometers.info/world-population/nicaragua-population/" xr:uid="{18BF57EE-6BDD-48F4-81B1-5095C7A40ABA}"/>
+    <hyperlink ref="B123" r:id="rId185" display="https://www.worldometers.info/coronavirus/country/nicaragua/" xr:uid="{C21A9BB8-CC55-4EC3-B008-394ADD2485F6}"/>
+    <hyperlink ref="N122" r:id="rId186" display="https://www.worldometers.info/world-population/china-hong-kong-sar-population/" xr:uid="{B818C1B3-87E7-403F-973B-7297D1E8E3A4}"/>
+    <hyperlink ref="B122" r:id="rId187" display="https://www.worldometers.info/coronavirus/country/china-hong-kong-sar/" xr:uid="{6E09DBCF-1D56-4742-AF99-E56F09F3D0F0}"/>
+    <hyperlink ref="N121" r:id="rId188" display="https://www.worldometers.info/world-population/djibouti-population/" xr:uid="{A556B0FB-C9B0-4EBD-A367-E98BEE590309}"/>
+    <hyperlink ref="B121" r:id="rId189" display="https://www.worldometers.info/coronavirus/country/djibouti/" xr:uid="{1EBB934F-2F82-480B-8FBE-C07C423389DF}"/>
+    <hyperlink ref="N120" r:id="rId190" display="https://www.worldometers.info/world-population/swaziland-population/" xr:uid="{397B6B5B-2AE2-412D-BEA5-82C1912DB18E}"/>
+    <hyperlink ref="B120" r:id="rId191" display="https://www.worldometers.info/coronavirus/country/swaziland/" xr:uid="{9555501C-1719-4850-B94D-B0EEBB03295C}"/>
+    <hyperlink ref="N119" r:id="rId192" display="https://www.worldometers.info/world-population/cuba-population/" xr:uid="{8756D61F-9DF5-4442-8571-A42C67211710}"/>
+    <hyperlink ref="B119" r:id="rId193" display="https://www.worldometers.info/coronavirus/country/cuba/" xr:uid="{B448FC3A-9AD5-4838-A087-8E76556092B3}"/>
+    <hyperlink ref="N118" r:id="rId194" display="https://www.worldometers.info/world-population/slovenia-population/" xr:uid="{61E37A5C-6586-4686-A9C7-8F99AB2EE96E}"/>
+    <hyperlink ref="B118" r:id="rId195" display="https://www.worldometers.info/coronavirus/country/slovenia/" xr:uid="{1A745133-76EF-4AA8-A91A-12D8588D0256}"/>
+    <hyperlink ref="N117" r:id="rId196" display="https://www.worldometers.info/world-population/malawi-population/" xr:uid="{A68146ED-4E66-4E81-B39D-1073E86C6458}"/>
+    <hyperlink ref="B117" r:id="rId197" display="https://www.worldometers.info/coronavirus/country/malawi/" xr:uid="{64B50FB4-355A-4822-A633-89472CF192D3}"/>
+    <hyperlink ref="N116" r:id="rId198" display="https://www.worldometers.info/world-population/cabo-verde-population/" xr:uid="{2D68BA63-7231-416B-AF3C-27AEF8A6AB88}"/>
+    <hyperlink ref="B116" r:id="rId199" display="https://www.worldometers.info/coronavirus/country/cabo-verde/" xr:uid="{E143D8B7-4EAD-4F99-8FF1-193A02654C0F}"/>
+    <hyperlink ref="N115" r:id="rId200" display="https://www.worldometers.info/world-population/georgia-population/" xr:uid="{82E024D9-F2A4-4735-8392-7AC1B692E242}"/>
+    <hyperlink ref="B115" r:id="rId201" display="https://www.worldometers.info/coronavirus/country/georgia/" xr:uid="{0FAF9255-77FE-426A-B202-422B862F30A6}"/>
+    <hyperlink ref="N114" r:id="rId202" display="https://www.worldometers.info/world-population/jamaica-population/" xr:uid="{A6911324-1398-47FD-A4BC-47F85795FE31}"/>
+    <hyperlink ref="B114" r:id="rId203" display="https://www.worldometers.info/coronavirus/country/jamaica/" xr:uid="{E1816719-8301-4CC1-A7CE-6B3F2CE7780C}"/>
+    <hyperlink ref="N113" r:id="rId204" display="https://www.worldometers.info/world-population/mauritania-population/" xr:uid="{E411D4AE-7F28-45E1-B1A0-F0FA3D28B815}"/>
+    <hyperlink ref="B113" r:id="rId205" display="https://www.worldometers.info/coronavirus/country/mauritania/" xr:uid="{CEE9CA08-9118-4A07-A625-3774F848EA95}"/>
+    <hyperlink ref="N112" r:id="rId206" display="https://www.worldometers.info/world-population/uganda-population/" xr:uid="{D6E298FB-1DCF-4DC4-90BC-1519AD5B4EEF}"/>
+    <hyperlink ref="B112" r:id="rId207" display="https://www.worldometers.info/coronavirus/country/uganda/" xr:uid="{EE692B7E-6CD0-4C62-9068-4564DCA61EF0}"/>
+    <hyperlink ref="N111" r:id="rId208" display="https://www.worldometers.info/world-population/zimbabwe-population/" xr:uid="{EF578D19-E235-4CA8-952B-E74E4A03E3DB}"/>
+    <hyperlink ref="B111" r:id="rId209" display="https://www.worldometers.info/coronavirus/country/zimbabwe/" xr:uid="{3EF10F61-1D5A-4C4B-B040-31528B56A973}"/>
+    <hyperlink ref="N110" r:id="rId210" display="https://www.worldometers.info/world-population/mozambique-population/" xr:uid="{44DA8EEB-6825-4242-956C-1C04ED5F49CD}"/>
+    <hyperlink ref="B110" r:id="rId211" display="https://www.worldometers.info/coronavirus/country/mozambique/" xr:uid="{C2C6848E-49FE-4C7D-B3EB-4A3CD050FF3F}"/>
+    <hyperlink ref="N109" r:id="rId212" display="https://www.worldometers.info/world-population/luxembourg-population/" xr:uid="{D3969460-B178-43B5-B9BE-F0D3F966735E}"/>
+    <hyperlink ref="B109" r:id="rId213" display="https://www.worldometers.info/coronavirus/country/luxembourg/" xr:uid="{FB5352EB-A72B-4387-BA5B-3E2689DE4237}"/>
+    <hyperlink ref="N108" r:id="rId214" display="https://www.worldometers.info/world-population/gabon-population/" xr:uid="{80019FA1-FC78-487E-96D2-C615B94C1FB4}"/>
+    <hyperlink ref="B108" r:id="rId215" display="https://www.worldometers.info/coronavirus/country/gabon/" xr:uid="{5AB0C425-88B9-4C92-9894-92BD4694A559}"/>
+    <hyperlink ref="N107" r:id="rId216" display="https://www.worldometers.info/world-population/haiti-population/" xr:uid="{33583DEF-21EF-40E2-9A2A-650C94A60B21}"/>
+    <hyperlink ref="B107" r:id="rId217" display="https://www.worldometers.info/coronavirus/country/haiti/" xr:uid="{83B32ED1-3C14-4B87-9CAC-820E9959C334}"/>
+    <hyperlink ref="N106" r:id="rId218" display="https://www.worldometers.info/world-population/jordan-population/" xr:uid="{ECCB9A8E-23C6-44B7-A065-465C76BA31FD}"/>
+    <hyperlink ref="B106" r:id="rId219" display="https://www.worldometers.info/coronavirus/country/jordan/" xr:uid="{820DDF7B-37A3-47E7-B8F3-DEAA3E278B34}"/>
+    <hyperlink ref="N105" r:id="rId220" display="https://www.worldometers.info/world-population/slovakia-population/" xr:uid="{45BF1E52-10D1-4FA4-8250-4EFE6BAB3406}"/>
+    <hyperlink ref="B105" r:id="rId221" display="https://www.worldometers.info/coronavirus/country/slovakia/" xr:uid="{0199BD11-3B01-4C36-84AC-24517F3AD3FF}"/>
+    <hyperlink ref="N104" r:id="rId222" display="https://www.worldometers.info/world-population/tajikistan-population/" xr:uid="{9BCB95AB-E07C-4A2E-B827-F147F1D832BC}"/>
+    <hyperlink ref="B104" r:id="rId223" display="https://www.worldometers.info/coronavirus/country/tajikistan/" xr:uid="{1A5EE46F-B68A-407F-85B9-0A8C4F40743D}"/>
+    <hyperlink ref="N103" r:id="rId224" display="https://www.worldometers.info/world-population/finland-population/" xr:uid="{51FB8CAC-04AA-4972-8F74-22333C59894E}"/>
+    <hyperlink ref="B103" r:id="rId225" display="https://www.worldometers.info/coronavirus/country/finland/" xr:uid="{A8991E6D-8700-44F2-A548-5B91532066C5}"/>
+    <hyperlink ref="N102" r:id="rId226" display="https://www.worldometers.info/world-population/french-guiana-population/" xr:uid="{E289DF90-D63C-4955-AF68-54F4C0284C8E}"/>
+    <hyperlink ref="B102" r:id="rId227" display="https://www.worldometers.info/coronavirus/country/french-guiana/" xr:uid="{D3A62CE8-7F79-441E-90F3-251BA03A17C3}"/>
+    <hyperlink ref="N101" r:id="rId228" display="https://www.worldometers.info/world-population/maldives-population/" xr:uid="{B0C3C7B2-A2A5-4A9A-9568-981DA4B59A74}"/>
+    <hyperlink ref="B101" r:id="rId229" display="https://www.worldometers.info/coronavirus/country/maldives/" xr:uid="{6E032523-AF9A-45B9-9459-BB00DBDEBE85}"/>
+    <hyperlink ref="N100" r:id="rId230" display="https://www.worldometers.info/world-population/montenegro-population/" xr:uid="{22E89C54-E798-48C1-B6EA-72BF94C06250}"/>
+    <hyperlink ref="B100" r:id="rId231" display="https://www.worldometers.info/coronavirus/country/montenegro/" xr:uid="{5E612D42-D69A-45AD-BE3C-7676E8A9F8B2}"/>
+    <hyperlink ref="N99" r:id="rId232" display="https://www.worldometers.info/world-population/guinea-population/" xr:uid="{A3CE7543-FD4C-4BFF-BACD-405B908CA5E4}"/>
+    <hyperlink ref="B99" r:id="rId233" display="https://www.worldometers.info/coronavirus/country/guinea/" xr:uid="{121EA13D-D43D-4EC5-9C2A-838266067511}"/>
+    <hyperlink ref="N98" r:id="rId234" display="https://www.worldometers.info/world-population/democratic-republic-of-the-congo-population/" xr:uid="{9EBD79A3-11FA-47C8-A31F-EA704E3183DB}"/>
+    <hyperlink ref="B98" r:id="rId235" display="https://www.worldometers.info/coronavirus/country/democratic-republic-of-the-congo/" xr:uid="{B57BA8DE-A579-48AC-BEF6-D082AA461799}"/>
+    <hyperlink ref="N97" r:id="rId236" display="https://www.worldometers.info/world-population/namibia-population/" xr:uid="{4A46D33D-D6C2-4499-B232-31CD82CD79EA}"/>
+    <hyperlink ref="B97" r:id="rId237" display="https://www.worldometers.info/coronavirus/country/namibia/" xr:uid="{36810CAA-ECB4-49D0-956A-7B8B13295890}"/>
+    <hyperlink ref="N96" r:id="rId238" display="https://www.worldometers.info/world-population/malaysia-population/" xr:uid="{8BBB137F-3245-4BF6-8985-8240FC652BDF}"/>
+    <hyperlink ref="B96" r:id="rId239" display="https://www.worldometers.info/coronavirus/country/malaysia/" xr:uid="{95A468B0-23FD-4B78-B7B1-C32642D6834A}"/>
+    <hyperlink ref="N95" r:id="rId240" display="https://www.worldometers.info/world-population/myanmar-population/" xr:uid="{C633F827-F053-4C31-93E3-6602F24C6785}"/>
+    <hyperlink ref="B95" r:id="rId241" display="https://www.worldometers.info/coronavirus/country/myanmar/" xr:uid="{620E141F-A813-4B1E-8849-2E24E1E3DF26}"/>
+    <hyperlink ref="N94" r:id="rId242" display="https://www.worldometers.info/world-population/albania-population/" xr:uid="{14B50D26-0EAB-4F13-BF2F-0F484952338E}"/>
+    <hyperlink ref="B94" r:id="rId243" display="https://www.worldometers.info/coronavirus/country/albania/" xr:uid="{B8D8B3D7-4B95-40CE-B79B-A4DD12FE0176}"/>
+    <hyperlink ref="N93" r:id="rId244" display="https://www.worldometers.info/world-population/sudan-population/" xr:uid="{5DDCAE26-5112-4EBB-9528-7CDDD80A8476}"/>
+    <hyperlink ref="B93" r:id="rId245" display="https://www.worldometers.info/coronavirus/country/sudan/" xr:uid="{CE84E826-0C8B-497C-B55B-71F0F465D42B}"/>
+    <hyperlink ref="N92" r:id="rId246" display="https://www.worldometers.info/world-population/norway-population/" xr:uid="{1C30F2EE-04B7-4E61-904F-B9E1D161A313}"/>
+    <hyperlink ref="B92" r:id="rId247" display="https://www.worldometers.info/coronavirus/country/norway/" xr:uid="{452F4E3D-638E-41DB-8EFF-2944BEB2A399}"/>
+    <hyperlink ref="N91" r:id="rId248" display="https://www.worldometers.info/world-population/zambia-population/" xr:uid="{B22C1FB7-27D0-47CF-BF4C-E75B9EB2D6D2}"/>
+    <hyperlink ref="B91" r:id="rId249" display="https://www.worldometers.info/coronavirus/country/zambia/" xr:uid="{5F1AB950-5499-42D5-B0A8-54E84D2F5279}"/>
+    <hyperlink ref="N90" r:id="rId250" display="https://www.worldometers.info/world-population/senegal-population/" xr:uid="{AA5D9EE5-1F7E-4E70-87E2-EBC3AF09F7C2}"/>
+    <hyperlink ref="B90" r:id="rId251" display="https://www.worldometers.info/coronavirus/country/senegal/" xr:uid="{60B65E3C-2195-456E-AB27-DD5FA8B1CFC0}"/>
+    <hyperlink ref="N89" r:id="rId252" display="https://www.worldometers.info/world-population/tunisia-population/" xr:uid="{D6E86435-AAE4-44CD-B2A7-01A7FD817FC6}"/>
+    <hyperlink ref="B89" r:id="rId253" display="https://www.worldometers.info/coronavirus/country/tunisia/" xr:uid="{C22A4ABC-D501-4F0C-8076-636DDD08287F}"/>
+    <hyperlink ref="N88" r:id="rId254" display="https://www.worldometers.info/world-population/madagascar-population/" xr:uid="{DACB890A-923D-4CCC-924F-A1964727813D}"/>
+    <hyperlink ref="B88" r:id="rId255" display="https://www.worldometers.info/coronavirus/country/madagascar/" xr:uid="{2CBEE24B-8281-421D-80D7-A6BF13F3BE1F}"/>
+    <hyperlink ref="N87" r:id="rId256" display="https://www.worldometers.info/world-population/croatia-population/" xr:uid="{4A4D7342-AD64-4216-8290-C154FD5E3BCF}"/>
+    <hyperlink ref="B87" r:id="rId257" display="https://www.worldometers.info/coronavirus/country/croatia/" xr:uid="{DBAEDB1C-568A-4F48-8C40-FB78290C46F5}"/>
+    <hyperlink ref="N86" r:id="rId258" display="https://www.worldometers.info/world-population/macedonia-population/" xr:uid="{8175E930-41E2-4DFC-AEE6-E948CEA6B278}"/>
+    <hyperlink ref="B86" r:id="rId259" display="https://www.worldometers.info/coronavirus/country/macedonia/" xr:uid="{6C3A64DE-7664-488E-9E3C-99E9466B3090}"/>
+    <hyperlink ref="N85" r:id="rId260" display="https://www.worldometers.info/world-population/greece-population/" xr:uid="{8F1FC8D6-F320-4AB5-A1BF-A90F92184787}"/>
+    <hyperlink ref="B85" r:id="rId261" display="https://www.worldometers.info/coronavirus/country/greece/" xr:uid="{20306628-DC24-4132-8899-C10EA4178AED}"/>
+    <hyperlink ref="N84" r:id="rId262" display="https://www.worldometers.info/world-population/cote-d-ivoire-population/" xr:uid="{6190261B-B30F-4168-87A3-5BA3ED8C4357}"/>
+    <hyperlink ref="B84" r:id="rId263" display="https://www.worldometers.info/coronavirus/country/cote-d-ivoire/" xr:uid="{0F4B804D-B497-45FB-8CAD-CF529DFC3495}"/>
+    <hyperlink ref="N83" r:id="rId264" display="https://www.worldometers.info/world-population/bulgaria-population/" xr:uid="{53004FA0-F4DA-4A26-B3CF-69F2811267EA}"/>
+    <hyperlink ref="B83" r:id="rId265" display="https://www.worldometers.info/coronavirus/country/bulgaria/" xr:uid="{1437491F-6C2B-4CA1-9AEC-7E7C3E23135F}"/>
+    <hyperlink ref="N82" r:id="rId266" display="https://www.worldometers.info/world-population/cameroon-population/" xr:uid="{EA5FE6A7-669F-4A49-A651-DFE7FB7E5780}"/>
+    <hyperlink ref="B82" r:id="rId267" display="https://www.worldometers.info/coronavirus/country/cameroon/" xr:uid="{253A8354-F1A2-4672-8155-A65447C4CF42}"/>
+    <hyperlink ref="N81" r:id="rId268" display="https://www.worldometers.info/world-population/south-korea-population/" xr:uid="{DC2113FE-0B4C-4948-96BC-FD342B2C2FCF}"/>
+    <hyperlink ref="B81" r:id="rId269" display="https://www.worldometers.info/coronavirus/country/south-korea/" xr:uid="{186D7FC0-0706-475C-A8C4-7E753F54C6E0}"/>
+    <hyperlink ref="N80" r:id="rId270" display="https://www.worldometers.info/world-population/hungary-population/" xr:uid="{171501BC-031F-40E9-80F7-D3272763E60C}"/>
+    <hyperlink ref="B80" r:id="rId271" display="https://www.worldometers.info/coronavirus/country/hungary/" xr:uid="{F1C30333-B606-4024-9E82-7DCDBE9C9BEF}"/>
+    <hyperlink ref="N79" r:id="rId272" display="https://www.worldometers.info/world-population/bosnia-and-herzegovina-population/" xr:uid="{BF99E824-577F-4260-8F94-B5144961785B}"/>
+    <hyperlink ref="B79" r:id="rId273" display="https://www.worldometers.info/coronavirus/country/bosnia-and-herzegovina/" xr:uid="{490D6878-C866-4976-A745-2EF2ADF6D4CF}"/>
+    <hyperlink ref="N78" r:id="rId274" display="https://www.worldometers.info/world-population/australia-population/" xr:uid="{7F3C5FE9-5EFF-4308-8420-6C4C2DBC2C38}"/>
+    <hyperlink ref="B78" r:id="rId275" display="https://www.worldometers.info/coronavirus/country/australia/" xr:uid="{1EA7FDF2-20C8-4F10-A31E-6C0AD30CA78C}"/>
+    <hyperlink ref="N77" r:id="rId276" display="https://www.worldometers.info/world-population/denmark-population/" xr:uid="{0A05C1E6-CAFD-43C6-8C09-1A72469087ED}"/>
+    <hyperlink ref="B77" r:id="rId277" display="https://www.worldometers.info/coronavirus/country/denmark/" xr:uid="{AFE6DBDC-C7B1-42E1-8638-BAA03E49DA62}"/>
+    <hyperlink ref="N76" r:id="rId278" display="https://www.worldometers.info/world-population/el-salvador-population/" xr:uid="{4588B85F-D5D7-4DF9-9DAC-746E8C0A1890}"/>
+    <hyperlink ref="B76" r:id="rId279" display="https://www.worldometers.info/coronavirus/country/el-salvador/" xr:uid="{666A5B1A-26ED-405D-A4D0-3386E3E7C34C}"/>
+    <hyperlink ref="N75" r:id="rId280" display="https://www.worldometers.info/world-population/libya-population/" xr:uid="{406CD976-5B39-4761-AD87-267BBA36F8A6}"/>
+    <hyperlink ref="B75" r:id="rId281" display="https://www.worldometers.info/coronavirus/country/libya/" xr:uid="{58A0C7E2-7A50-40F9-BC1C-60C719E55547}"/>
+    <hyperlink ref="N74" r:id="rId282" display="https://www.worldometers.info/world-population/serbia-population/" xr:uid="{7B5CEAB8-68C8-4090-9756-6C9F4D90A6D6}"/>
+    <hyperlink ref="B74" r:id="rId283" display="https://www.worldometers.info/coronavirus/country/serbia/" xr:uid="{FDC8E586-B89D-4FA3-AC0B-EE17DBA94AB8}"/>
+    <hyperlink ref="N73" r:id="rId284" display="https://www.worldometers.info/world-population/ireland-population/" xr:uid="{8805D4A8-7FE6-473E-A74C-714CB3E1B0BB}"/>
+    <hyperlink ref="B73" r:id="rId285" display="https://www.worldometers.info/coronavirus/country/ireland/" xr:uid="{B1E68572-A2D3-4B6F-9648-CFC2964ADA28}"/>
+    <hyperlink ref="N72" r:id="rId286" display="https://www.worldometers.info/world-population/lebanon-population/" xr:uid="{1D9591AD-ED26-4FCA-B679-D1CB16F3CF64}"/>
+    <hyperlink ref="B72" r:id="rId287" display="https://www.worldometers.info/coronavirus/country/lebanon/" xr:uid="{BB1CEEF7-18C2-43B0-95D0-DA8191CCBE44}"/>
+    <hyperlink ref="N71" r:id="rId288" display="https://www.worldometers.info/world-population/kenya-population/" xr:uid="{14B23073-E32E-43C7-91C2-B78C88B846D8}"/>
+    <hyperlink ref="B71" r:id="rId289" display="https://www.worldometers.info/coronavirus/country/kenya/" xr:uid="{D9DA4C87-1F60-43FF-B376-57973E77D068}"/>
+    <hyperlink ref="N70" r:id="rId290" display="https://www.worldometers.info/world-population/state-of-palestine-population/" xr:uid="{FA57FB3F-CEEB-4067-997A-4A5E420F3C9A}"/>
+    <hyperlink ref="B70" r:id="rId291" display="https://www.worldometers.info/coronavirus/country/state-of-palestine/" xr:uid="{AB0134FC-C0B9-48B4-8287-3DFA0EE7FA0C}"/>
+    <hyperlink ref="N69" r:id="rId292" display="https://www.worldometers.info/world-population/afghanistan-population/" xr:uid="{28F1052D-01C6-443D-95F7-847B1B748015}"/>
+    <hyperlink ref="B69" r:id="rId293" display="https://www.worldometers.info/coronavirus/country/afghanistan/" xr:uid="{BCADE7BB-F3B8-421F-87FE-202D2A17F53A}"/>
+    <hyperlink ref="N68" r:id="rId294" display="https://www.worldometers.info/world-population/paraguay-population/" xr:uid="{0A3936E9-254B-4406-BD46-41E5C083C866}"/>
+    <hyperlink ref="B68" r:id="rId295" display="https://www.worldometers.info/coronavirus/country/paraguay/" xr:uid="{5CA36ED6-EAE5-410B-BFC7-E6FE1965BED6}"/>
+    <hyperlink ref="N67" r:id="rId296" display="https://www.worldometers.info/world-population/azerbaijan-population/" xr:uid="{73493FC8-701E-4D72-B773-EAAE7448EEDF}"/>
+    <hyperlink ref="B67" r:id="rId297" display="https://www.worldometers.info/coronavirus/country/azerbaijan/" xr:uid="{475888EB-530A-4B1A-9DED-81DB345DF645}"/>
+    <hyperlink ref="N66" r:id="rId298" display="https://www.worldometers.info/world-population/austria-population/" xr:uid="{080D88E5-C510-42FF-B00F-C0362ABEECC0}"/>
+    <hyperlink ref="B66" r:id="rId299" display="https://www.worldometers.info/coronavirus/country/austria/" xr:uid="{BC93BAC9-032A-4A16-9FFD-C8480A3D75D7}"/>
+    <hyperlink ref="N65" r:id="rId300" display="https://www.worldometers.info/world-population/ghana-population/" xr:uid="{1D97BF18-BBAC-4EBC-A65B-9E0BF54F184E}"/>
+    <hyperlink ref="B65" r:id="rId301" display="https://www.worldometers.info/coronavirus/country/ghana/" xr:uid="{6A10C3BD-22DD-4BF8-B118-3EC5FB819508}"/>
+    <hyperlink ref="N64" r:id="rId302" display="https://www.worldometers.info/world-population/kyrgyzstan-population/" xr:uid="{72844843-48C6-46CD-8672-0F9ED67AFCB2}"/>
+    <hyperlink ref="B64" r:id="rId303" display="https://www.worldometers.info/coronavirus/country/kyrgyzstan/" xr:uid="{E0E71193-F84F-40E2-B771-AFF3554FB5CB}"/>
+    <hyperlink ref="N63" r:id="rId304" display="https://www.worldometers.info/world-population/armenia-population/" xr:uid="{4FA7481C-B1D9-4DBF-9DA1-F878E05C81C7}"/>
+    <hyperlink ref="B63" r:id="rId305" display="https://www.worldometers.info/coronavirus/country/armenia/" xr:uid="{7E40728E-2B11-4CF6-867F-27CA71E6CB71}"/>
+    <hyperlink ref="N62" r:id="rId306" display="https://www.worldometers.info/world-population/moldova-population/" xr:uid="{40EF4CEE-4180-4FEB-AEC6-6775C6A1CB02}"/>
+    <hyperlink ref="B62" r:id="rId307" display="https://www.worldometers.info/coronavirus/country/moldova/" xr:uid="{84BF16F8-9190-46C1-A0EA-8DF3A39F7C12}"/>
+    <hyperlink ref="N61" r:id="rId308" display="https://www.worldometers.info/world-population/algeria-population/" xr:uid="{14891B26-02E2-4E7A-B711-2E3BFE41B567}"/>
+    <hyperlink ref="B61" r:id="rId309" display="https://www.worldometers.info/coronavirus/country/algeria/" xr:uid="{5C2A7E36-BAEE-4937-A2D6-454AE26F20B7}"/>
+    <hyperlink ref="N60" r:id="rId310" display="https://www.worldometers.info/world-population/switzerland-population/" xr:uid="{3B20B800-824A-4E77-9383-0C93273175FE}"/>
+    <hyperlink ref="B60" r:id="rId311" display="https://www.worldometers.info/coronavirus/country/switzerland/" xr:uid="{663F7643-E9C9-4874-9272-DA982D97A004}"/>
+    <hyperlink ref="N59" r:id="rId312" display="https://www.worldometers.info/world-population/uzbekistan-population/" xr:uid="{6107F72F-607F-499B-8F60-7C6664D75534}"/>
+    <hyperlink ref="B59" r:id="rId313" display="https://www.worldometers.info/coronavirus/country/uzbekistan/" xr:uid="{BBB4997A-A271-4ABA-8B29-CBB20B29BF7E}"/>
+    <hyperlink ref="N58" r:id="rId314" display="https://www.worldometers.info/world-population/singapore-population/" xr:uid="{CC7922DF-346B-454F-ADE9-BDE814EC98B0}"/>
+    <hyperlink ref="B58" r:id="rId315" display="https://www.worldometers.info/coronavirus/country/singapore/" xr:uid="{DD064506-75F9-49D0-95DE-75867AE2625B}"/>
+    <hyperlink ref="N57" r:id="rId316" display="https://www.worldometers.info/world-population/nigeria-population/" xr:uid="{5A789ED0-17FE-4CE1-907B-969D47499EA2}"/>
+    <hyperlink ref="B57" r:id="rId317" display="https://www.worldometers.info/coronavirus/country/nigeria/" xr:uid="{9D539547-B6DC-4436-8A57-D0311162EF61}"/>
+    <hyperlink ref="N56" r:id="rId318" display="https://www.worldometers.info/world-population/czech-republic-population/" xr:uid="{655B771F-6756-4473-9071-857B9E95CEC1}"/>
+    <hyperlink ref="B56" r:id="rId319" display="https://www.worldometers.info/coronavirus/country/czech-republic/" xr:uid="{AE3EBF59-D55F-4640-84FD-7E21C9ED6E17}"/>
+    <hyperlink ref="N55" r:id="rId320" display="https://www.worldometers.info/world-population/bahrain-population/" xr:uid="{A1FB5304-EFA0-4E1E-850A-0035060F0E00}"/>
+    <hyperlink ref="B55" r:id="rId321" display="https://www.worldometers.info/coronavirus/country/bahrain/" xr:uid="{726079E0-2749-4ABA-9090-14B5384D01BC}"/>
+    <hyperlink ref="N54" r:id="rId322" display="https://www.worldometers.info/world-population/venezuela-population/" xr:uid="{32F7BD83-066F-4CA5-B27A-6AAEC282E5C1}"/>
+    <hyperlink ref="B54" r:id="rId323" display="https://www.worldometers.info/coronavirus/country/venezuela/" xr:uid="{3CDB72D7-23E0-46B9-A109-05E42425ED21}"/>
+    <hyperlink ref="N53" r:id="rId324" display="https://www.worldometers.info/world-population/costa-rica-population/" xr:uid="{CF3E29AA-B83B-4306-979D-55EED2875E78}"/>
+    <hyperlink ref="B53" r:id="rId325" display="https://www.worldometers.info/coronavirus/country/costa-rica/" xr:uid="{2C1B50E3-423D-4E59-A4CC-CCC6E46839DD}"/>
+    <hyperlink ref="N52" r:id="rId326" display="https://www.worldometers.info/world-population/ethiopia-population/" xr:uid="{201E5B01-921E-4A1B-A4B5-6720DC5AD739}"/>
+    <hyperlink ref="B52" r:id="rId327" display="https://www.worldometers.info/coronavirus/country/ethiopia/" xr:uid="{E3C6A9B8-4533-4907-BF61-3F5624FE0F57}"/>
+    <hyperlink ref="N51" r:id="rId328" display="https://www.worldometers.info/world-population/portugal-population/" xr:uid="{DCC534A5-533F-44E3-BA27-F5BC928A09E5}"/>
+    <hyperlink ref="B51" r:id="rId329" display="https://www.worldometers.info/coronavirus/country/portugal/" xr:uid="{E9FAB5D6-94D6-4138-9525-0331C660BB1A}"/>
+    <hyperlink ref="N50" r:id="rId330" display="https://www.worldometers.info/world-population/honduras-population/" xr:uid="{0E51F00E-BE58-4F61-A9B2-00B1E60A292E}"/>
+    <hyperlink ref="B50" r:id="rId331" display="https://www.worldometers.info/coronavirus/country/honduras/" xr:uid="{EDAD9246-9180-4F56-84BD-4E02E5B79328}"/>
+    <hyperlink ref="N49" r:id="rId332" display="https://www.worldometers.info/world-population/nepal-population/" xr:uid="{70CE86BD-AA87-4FC7-8494-8265F3C5C1E6}"/>
+    <hyperlink ref="B49" r:id="rId333" display="https://www.worldometers.info/coronavirus/country/nepal/" xr:uid="{EE88D83C-FD3F-45C7-BB0A-EA80ACA94B2A}"/>
+    <hyperlink ref="N48" r:id="rId334" display="https://www.worldometers.info/world-population/belarus-population/" xr:uid="{B5E1049D-4C51-4DB6-A52A-1451E0F29FD0}"/>
+    <hyperlink ref="B48" r:id="rId335" display="https://www.worldometers.info/coronavirus/country/belarus/" xr:uid="{85542A7B-9983-40C6-9D38-0DA0E55B9C13}"/>
+    <hyperlink ref="N47" r:id="rId336" display="https://www.worldometers.info/world-population/japan-population/" xr:uid="{8F54A79F-8B25-47C8-ACEB-B60C76C6C246}"/>
+    <hyperlink ref="B47" r:id="rId337" display="https://www.worldometers.info/coronavirus/country/japan/" xr:uid="{DAB0EE69-1DEE-49B4-A573-5C1C2CAB3A6F}"/>
+    <hyperlink ref="B46" r:id="rId338" display="https://www.worldometers.info/coronavirus/country/china/" xr:uid="{36267394-5F7D-4545-8F6E-A22BC720B20E}"/>
+    <hyperlink ref="N45" r:id="rId339" display="https://www.worldometers.info/world-population/poland-population/" xr:uid="{99BE2148-BC8B-451A-98B6-5FB5DD1A4C49}"/>
+    <hyperlink ref="B45" r:id="rId340" display="https://www.worldometers.info/coronavirus/country/poland/" xr:uid="{1D92D7C5-8553-40A5-8769-17F4B1A8FEB7}"/>
+    <hyperlink ref="N44" r:id="rId341" display="https://www.worldometers.info/world-population/guatemala-population/" xr:uid="{051BEA68-BAF5-4EBF-BE7C-999AB3072833}"/>
+    <hyperlink ref="B44" r:id="rId342" display="https://www.worldometers.info/coronavirus/country/guatemala/" xr:uid="{43771077-3C23-4AD5-BA1E-2BF93D0E4801}"/>
+    <hyperlink ref="N43" r:id="rId343" display="https://www.worldometers.info/world-population/sweden-population/" xr:uid="{47E16F6A-1125-45C9-80D4-1311CF815696}"/>
+    <hyperlink ref="B43" r:id="rId344" display="https://www.worldometers.info/coronavirus/country/sweden/" xr:uid="{59389F80-8CB5-409F-9BB7-246E80879B7D}"/>
+    <hyperlink ref="N42" r:id="rId345" display="https://www.worldometers.info/world-population/united-arab-emirates-population/" xr:uid="{1C00B759-609C-4C28-91AE-968F3C9969BD}"/>
+    <hyperlink ref="B42" r:id="rId346" display="https://www.worldometers.info/coronavirus/country/united-arab-emirates/" xr:uid="{9ADA3C81-4EE1-41CB-BC80-F26A7AF595BD}"/>
+    <hyperlink ref="N41" r:id="rId347" display="https://www.worldometers.info/world-population/oman-population/" xr:uid="{E82CB340-41AA-4E9D-B963-D678D7479E86}"/>
+    <hyperlink ref="B41" r:id="rId348" display="https://www.worldometers.info/coronavirus/country/oman/" xr:uid="{E4AAC224-335E-40C7-883D-00CBB1ECB29D}"/>
+    <hyperlink ref="N40" r:id="rId349" display="https://www.worldometers.info/world-population/egypt-population/" xr:uid="{C566ED05-C4EE-4F47-A5F6-07DAFFEE5B06}"/>
+    <hyperlink ref="B40" r:id="rId350" display="https://www.worldometers.info/coronavirus/country/egypt/" xr:uid="{2137C54E-253B-45F2-8A49-092212CC3FDD}"/>
+    <hyperlink ref="N39" r:id="rId351" display="https://www.worldometers.info/world-population/kuwait-population/" xr:uid="{4C74F8A3-7DC2-4EE8-8723-7542BB6B02DA}"/>
+    <hyperlink ref="B39" r:id="rId352" display="https://www.worldometers.info/coronavirus/country/kuwait/" xr:uid="{E7B16631-9D16-4794-8116-A3117939F486}"/>
+    <hyperlink ref="N38" r:id="rId353" display="https://www.worldometers.info/world-population/kazakhstan-population/" xr:uid="{BF9D36F4-0CB6-427E-BD14-F87E9F3BF09C}"/>
+    <hyperlink ref="B38" r:id="rId354" display="https://www.worldometers.info/coronavirus/country/kazakhstan/" xr:uid="{23CC3A4D-1657-48FD-AE9E-7EE2DEA783C4}"/>
+    <hyperlink ref="N37" r:id="rId355" display="https://www.worldometers.info/world-population/panama-population/" xr:uid="{41B96002-7D9D-44B4-B016-3CE258065282}"/>
+    <hyperlink ref="B37" r:id="rId356" display="https://www.worldometers.info/coronavirus/country/panama/" xr:uid="{D5C851C8-2227-488A-A6E3-D4688E9D0890}"/>
+    <hyperlink ref="N36" r:id="rId357" display="https://www.worldometers.info/world-population/dominican-republic-population/" xr:uid="{5CD6429E-BEAD-43BA-80F8-359799000BF7}"/>
+    <hyperlink ref="B36" r:id="rId358" display="https://www.worldometers.info/coronavirus/country/dominican-republic/" xr:uid="{43B37B7E-B95E-4225-A3F1-815C3FDCC750}"/>
+    <hyperlink ref="N35" r:id="rId359" display="https://www.worldometers.info/world-population/netherlands-population/" xr:uid="{8AF53076-EDE4-4817-AEE6-E8C07C6F363C}"/>
+    <hyperlink ref="B35" r:id="rId360" display="https://www.worldometers.info/coronavirus/country/netherlands/" xr:uid="{F0CE7964-33D9-4B8E-9143-90C893276221}"/>
+    <hyperlink ref="N34" r:id="rId361" display="https://www.worldometers.info/world-population/belgium-population/" xr:uid="{BA4EEC85-0863-4C54-BC22-66927B879201}"/>
+    <hyperlink ref="B34" r:id="rId362" display="https://www.worldometers.info/coronavirus/country/belgium/" xr:uid="{AB6EB3BE-1432-4EE1-B416-C2AF096629AE}"/>
+    <hyperlink ref="N33" r:id="rId363" display="https://www.worldometers.info/world-population/morocco-population/" xr:uid="{063CAFD4-1E3A-44BC-9BE0-C67298162614}"/>
+    <hyperlink ref="B33" r:id="rId364" display="https://www.worldometers.info/coronavirus/country/morocco/" xr:uid="{0525D906-3400-4F86-BC19-743B6168B33D}"/>
+    <hyperlink ref="B32" r:id="rId365" display="https://www.worldometers.info/coronavirus/country/qatar/" xr:uid="{6CE9A9C8-B629-4BF2-9FBA-38D30F45E280}"/>
+    <hyperlink ref="N31" r:id="rId366" display="https://www.worldometers.info/world-population/romania-population/" xr:uid="{99CFE915-4FB6-4F4E-9C15-46A7EA5DFFA4}"/>
+    <hyperlink ref="B31" r:id="rId367" display="https://www.worldometers.info/coronavirus/country/romania/" xr:uid="{A3802937-917F-4E47-8854-18F85743995D}"/>
+    <hyperlink ref="N30" r:id="rId368" display="https://www.worldometers.info/world-population/bolivia-population/" xr:uid="{1157B830-EF59-4104-9D41-BB2E71A2AECC}"/>
+    <hyperlink ref="B30" r:id="rId369" display="https://www.worldometers.info/coronavirus/country/bolivia/" xr:uid="{69152AFA-B8D7-4BDE-8A43-D8ED5D1C779B}"/>
+    <hyperlink ref="N29" r:id="rId370" display="https://www.worldometers.info/world-population/ecuador-population/" xr:uid="{E5F5BD53-A739-4B1A-BED2-139E2384A056}"/>
+    <hyperlink ref="B29" r:id="rId371" display="https://www.worldometers.info/coronavirus/country/ecuador/" xr:uid="{89FB04D2-76A5-46BE-AC9A-6427E1AF0F7F}"/>
+    <hyperlink ref="N28" r:id="rId372" display="https://www.worldometers.info/world-population/canada-population/" xr:uid="{F8894314-05AB-4300-98F1-8F5C91FC491F}"/>
+    <hyperlink ref="B28" r:id="rId373" display="https://www.worldometers.info/coronavirus/country/canada/" xr:uid="{DF6545EF-ABEE-4E6E-B2EA-C4FEF6471F3A}"/>
+    <hyperlink ref="N27" r:id="rId374" display="https://www.worldometers.info/world-population/ukraine-population/" xr:uid="{224E2CCE-2FEA-4944-B665-FFD63E987599}"/>
+    <hyperlink ref="B27" r:id="rId375" display="https://www.worldometers.info/coronavirus/country/ukraine/" xr:uid="{4382746B-F2F2-4E5A-B209-A089F172D8F0}"/>
+    <hyperlink ref="B26" r:id="rId376" display="https://www.worldometers.info/coronavirus/country/israel/" xr:uid="{31CF1B29-4C5D-40C2-B7D2-CD4F9A75FA65}"/>
+    <hyperlink ref="N25" r:id="rId377" display="https://www.worldometers.info/world-population/indonesia-population/" xr:uid="{17BB1BB8-658E-4453-B6BC-92AD718E74AE}"/>
+    <hyperlink ref="B25" r:id="rId378" display="https://www.worldometers.info/coronavirus/country/indonesia/" xr:uid="{6C15DFCC-846A-4139-89E6-934F9C8A250A}"/>
+    <hyperlink ref="N24" r:id="rId379" display="https://www.worldometers.info/world-population/germany-population/" xr:uid="{88FB6198-B65E-4521-93B3-0180C900EF17}"/>
+    <hyperlink ref="B24" r:id="rId380" display="https://www.worldometers.info/coronavirus/country/germany/" xr:uid="{C825C2E9-FD83-4019-9AF7-FC3F7D87F3FE}"/>
+    <hyperlink ref="N23" r:id="rId381" display="https://www.worldometers.info/world-population/philippines-population/" xr:uid="{FCF072A4-0778-459C-9747-7BC64AF85488}"/>
+    <hyperlink ref="B23" r:id="rId382" display="https://www.worldometers.info/coronavirus/country/philippines/" xr:uid="{A344F5B9-08C3-40D9-A18B-0E040510728F}"/>
+    <hyperlink ref="N22" r:id="rId383" display="https://www.worldometers.info/world-population/italy-population/" xr:uid="{8B8EB267-E4AD-453C-BD79-A973A3E0E270}"/>
+    <hyperlink ref="B22" r:id="rId384" display="https://www.worldometers.info/coronavirus/country/italy/" xr:uid="{DCB88EC7-5DF1-4939-BFA7-19BC975F6066}"/>
+    <hyperlink ref="N21" r:id="rId385" display="https://www.worldometers.info/world-population/pakistan-population/" xr:uid="{36ECAED5-0249-4331-9104-95DF43526C99}"/>
+    <hyperlink ref="B21" r:id="rId386" display="https://www.worldometers.info/coronavirus/country/pakistan/" xr:uid="{4516BAA4-DE7E-4D88-B534-1606A4D63B89}"/>
+    <hyperlink ref="N20" r:id="rId387" display="https://www.worldometers.info/world-population/turkey-population/" xr:uid="{6CBE04C0-4B8A-4471-BC99-AC46B1400062}"/>
+    <hyperlink ref="B20" r:id="rId388" display="https://www.worldometers.info/coronavirus/country/turkey/" xr:uid="{D12025AE-5735-46B6-924C-3FE8D052F1CC}"/>
+    <hyperlink ref="N19" r:id="rId389" display="https://www.worldometers.info/world-population/saudi-arabia-population/" xr:uid="{13937FF5-A778-4ED3-8134-01941818156A}"/>
+    <hyperlink ref="B19" r:id="rId390" display="https://www.worldometers.info/coronavirus/country/saudi-arabia/" xr:uid="{DAF7509C-BEFC-411E-A6C5-D03F898D3180}"/>
+    <hyperlink ref="N18" r:id="rId391" display="https://www.worldometers.info/world-population/iraq-population/" xr:uid="{0FAC6815-9DFF-4E25-94C9-7D64F6F8DFF6}"/>
+    <hyperlink ref="B18" r:id="rId392" display="https://www.worldometers.info/coronavirus/country/iraq/" xr:uid="{C04AD769-8548-4945-879A-3D60D89FE005}"/>
+    <hyperlink ref="N17" r:id="rId393" display="https://www.worldometers.info/world-population/bangladesh-population/" xr:uid="{2463F3A0-5510-4036-89ED-0F32AF5D70D6}"/>
+    <hyperlink ref="B17" r:id="rId394" display="https://www.worldometers.info/coronavirus/country/bangladesh/" xr:uid="{D283C4DC-FC87-432E-9AD4-4B8AF70BBA6A}"/>
+    <hyperlink ref="N16" r:id="rId395" display="https://www.worldometers.info/world-population/uk-population/" xr:uid="{068FE8B6-3E1F-4550-9452-2DE23FDC0E64}"/>
+    <hyperlink ref="B16" r:id="rId396" display="https://www.worldometers.info/coronavirus/country/uk/" xr:uid="{1F68D32C-B742-42D3-BFA7-9C34BB128EEB}"/>
+    <hyperlink ref="N15" r:id="rId397" display="https://www.worldometers.info/world-population/iran-population/" xr:uid="{E16EF6C5-48E5-4F98-8766-976BC70ED974}"/>
+    <hyperlink ref="B15" r:id="rId398" display="https://www.worldometers.info/coronavirus/country/iran/" xr:uid="{570E4D82-7C1A-4D35-B337-2A44C90A936B}"/>
+    <hyperlink ref="N14" r:id="rId399" display="https://www.worldometers.info/world-population/chile-population/" xr:uid="{1700AC88-813A-47F6-8E78-61EBD00AA1C9}"/>
+    <hyperlink ref="B14" r:id="rId400" display="https://www.worldometers.info/coronavirus/country/chile/" xr:uid="{BAEBE59E-BB21-4FD5-8A04-5AA412CF71A9}"/>
+    <hyperlink ref="N13" r:id="rId401" display="https://www.worldometers.info/world-population/france-population/" xr:uid="{C5401BDB-4CAF-4B48-9E56-CBD0C851A8E9}"/>
+    <hyperlink ref="B13" r:id="rId402" display="https://www.worldometers.info/coronavirus/country/france/" xr:uid="{2CED9619-4313-4A2B-B4FB-FB7C93C8DE85}"/>
+    <hyperlink ref="N12" r:id="rId403" display="https://www.worldometers.info/world-population/south-africa-population/" xr:uid="{96AA1C5D-2A74-47AF-9570-706A128B5041}"/>
+    <hyperlink ref="B12" r:id="rId404" display="https://www.worldometers.info/coronavirus/country/south-africa/" xr:uid="{0729F700-365B-4589-A355-5C585469BCA2}"/>
+    <hyperlink ref="N11" r:id="rId405" display="https://www.worldometers.info/world-population/argentina-population/" xr:uid="{535BDE81-F054-4DD1-9595-F80413551A77}"/>
+    <hyperlink ref="B11" r:id="rId406" display="https://www.worldometers.info/coronavirus/country/argentina/" xr:uid="{6DED0653-F2B5-4785-AE50-300F737B3CDE}"/>
+    <hyperlink ref="N10" r:id="rId407" display="https://www.worldometers.info/world-population/mexico-population/" xr:uid="{8F20E11C-6513-4C35-8723-25081977D425}"/>
+    <hyperlink ref="B10" r:id="rId408" display="https://www.worldometers.info/coronavirus/country/mexico/" xr:uid="{B2BB523E-DBB7-4CE6-84D1-AB02A07199FE}"/>
+    <hyperlink ref="N9" r:id="rId409" display="https://www.worldometers.info/world-population/spain-population/" xr:uid="{12182B6B-A10E-4F70-B38F-54A5D64F1095}"/>
+    <hyperlink ref="B9" r:id="rId410" display="https://www.worldometers.info/coronavirus/country/spain/" xr:uid="{9A4339E2-088A-4E85-A90C-D1A3D821D20C}"/>
+    <hyperlink ref="N8" r:id="rId411" display="https://www.worldometers.info/world-population/peru-population/" xr:uid="{51B30057-E56C-4BA8-BECE-C2F2DB35501E}"/>
+    <hyperlink ref="B8" r:id="rId412" display="https://www.worldometers.info/coronavirus/country/peru/" xr:uid="{1D9BCAA0-566D-43AF-87B2-3D7E6B81AFFB}"/>
+    <hyperlink ref="N7" r:id="rId413" display="https://www.worldometers.info/world-population/colombia-population/" xr:uid="{BE2A4A8E-254A-42E4-99FA-532FFB0044EB}"/>
+    <hyperlink ref="B7" r:id="rId414" display="https://www.worldometers.info/coronavirus/country/colombia/" xr:uid="{1EBF3B8D-5E4C-4422-830D-B430CE685710}"/>
+    <hyperlink ref="N6" r:id="rId415" display="https://www.worldometers.info/world-population/russia-population/" xr:uid="{D873E725-78D3-4B45-A934-94634274D56A}"/>
+    <hyperlink ref="B6" r:id="rId416" display="https://www.worldometers.info/coronavirus/country/russia/" xr:uid="{9A02490B-77C7-47B2-B8A4-AD8286D8C7E9}"/>
+    <hyperlink ref="N5" r:id="rId417" display="https://www.worldometers.info/world-population/brazil-population/" xr:uid="{10E81AF9-F627-415B-9CD2-2FEE20CD1950}"/>
+    <hyperlink ref="B5" r:id="rId418" display="https://www.worldometers.info/coronavirus/country/brazil/" xr:uid="{39E3E199-A234-4571-B3E7-B39C2CB61191}"/>
+    <hyperlink ref="N4" r:id="rId419" display="https://www.worldometers.info/world-population/india-population/" xr:uid="{F738FFA0-F6C6-4F9B-88CC-D131809D1084}"/>
+    <hyperlink ref="B4" r:id="rId420" display="https://www.worldometers.info/coronavirus/country/india/" xr:uid="{DDD25092-4FFA-44B4-989E-7F2333103092}"/>
+    <hyperlink ref="N3" r:id="rId421" display="https://www.worldometers.info/world-population/us-population/" xr:uid="{B011AD60-05D4-4CB7-BBBC-6A465A03246E}"/>
+    <hyperlink ref="B3" r:id="rId422" display="https://www.worldometers.info/coronavirus/country/us/" xr:uid="{78AD9919-E8F0-471B-B786-12BEBCA7C6B0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId423"/>
